--- a/hardware/BOM.xlsx
+++ b/hardware/BOM.xlsx
@@ -1,99 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
-    <t>Electronics</t>
+    <t xml:space="preserve">Electronics</t>
   </si>
   <si>
-    <t>Product Name</t>
+    <t xml:space="preserve">Product Name</t>
   </si>
   <si>
-    <t>Quantity</t>
+    <t xml:space="preserve">Quantity</t>
   </si>
   <si>
-    <t>Unit Price in USD (As of Nov '20)</t>
+    <t xml:space="preserve">Unit Price in USD (As of Nov '20)</t>
   </si>
   <si>
-    <t>Total</t>
+    <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t>ST3215 Servo</t>
+    <t xml:space="preserve">ST3215 Servo</t>
   </si>
   <si>
-    <t>URT-1 servo control board</t>
+    <t xml:space="preserve">URT-1 servo control board</t>
   </si>
   <si>
-    <t>BLHeli_S 45A BLDC controller</t>
+    <t xml:space="preserve">Wraith32 V2 BLDC Controller</t>
   </si>
   <si>
-    <t>N3548 900KV BLDC motor</t>
+    <t xml:space="preserve">N3548 900KV BLDC motor</t>
   </si>
   <si>
-    <t>EM7032H BLDC motor</t>
+    <t xml:space="preserve">W9235 BLDC motor</t>
   </si>
   <si>
-    <t>VESC 4.12 BLDC Controller</t>
+    <t xml:space="preserve">VESC 4.12 BLDC Controller</t>
   </si>
   <si>
-    <t>4 ports powered USB 3.0 hub</t>
+    <t xml:space="preserve">AS5047P encoder</t>
   </si>
   <si>
-    <t>Raspberry Pi 4B 4GB</t>
+    <t xml:space="preserve">AS5048A encoder</t>
   </si>
   <si>
-    <t>Intel Realsense D455</t>
+    <t xml:space="preserve">ESP32 WROVER-B</t>
   </si>
   <si>
-    <t>Odrive 3.6 56V BLDC controller</t>
+    <t xml:space="preserve">4 ports powered USB 3.0 hub</t>
   </si>
   <si>
-    <t>N5065 330KV BLDC motor</t>
+    <t xml:space="preserve">Raspberry Pi 4B 4GB</t>
   </si>
   <si>
-    <t>6200mAh 3S 35C LiPo battery</t>
+    <t xml:space="preserve">Intel Realsense D455</t>
   </si>
   <si>
-    <t>ASSAN Dual-UBEC power module</t>
+    <t xml:space="preserve">Odrive 3.6 56V BLDC controller</t>
   </si>
   <si>
-    <t>iFlight Succex PDB</t>
+    <t xml:space="preserve">N5055 330KV BLDC motor</t>
   </si>
   <si>
-    <t>Misc. cables and connectors</t>
+    <t xml:space="preserve">6200mAh 3S 35C LiPo battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSAN Dual-UBEC power module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iFlight Succex PDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misc. cables and connectors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,509 +155,1099 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF7E0021"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFA4CCAB"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF7BAAF7"/>
+      <rgbColor rgb="FFEA4335"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FF7ED1D7"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFF07B72"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFB3CEFB"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFFCD04F"/>
+      <rgbColor rgb="FF83CAFF"/>
+      <rgbColor rgb="FFF7B4AE"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFCD6A1"/>
+      <rgbColor rgb="FF4285F4"/>
+      <rgbColor rgb="FF46BDC6"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFBBC04"/>
+      <rgbColor rgb="FFFF994D"/>
+      <rgbColor rgb="FFFF6D01"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF71C287"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF34A853"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF314004"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF1A1A1A"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0" sz="1600">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1600">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Cost Distribution</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
       <c:doughnutChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4285f4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4285F4"/>
+                <a:srgbClr val="4285f4"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="EA4335"/>
+                <a:srgbClr val="ea4335"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FBBC04"/>
+                <a:srgbClr val="fbbc04"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="34A853"/>
+                <a:srgbClr val="34a853"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF6D01"/>
+                <a:srgbClr val="ff6d01"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="46BDC6"/>
+                <a:srgbClr val="46bdc6"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7BAAF7"/>
+                <a:srgbClr val="7baaf7"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="F07B72"/>
+                <a:srgbClr val="f07b72"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FCD04F"/>
+                <a:srgbClr val="fcd04f"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="71C287"/>
+                <a:srgbClr val="71c287"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF994D"/>
+                <a:srgbClr val="ff994d"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7ED1D7"/>
+                <a:srgbClr val="7ed1d7"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="B3CEFB"/>
+                <a:srgbClr val="b3cefb"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="F7B4AE"/>
+                <a:srgbClr val="f7b4ae"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="fcd6a1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="a4ccab"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$18</c:f>
+              <c:f>Sheet1!$A$3:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>ST3215 Servo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>URT-1 servo control board</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wraith32 V2 BLDC Controller</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>N3548 900KV BLDC motor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W9235 BLDC motor</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VESC 4.12 BLDC Controller</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AS5047P encoder</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AS5048A encoder</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ESP32 WROVER-B</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4 ports powered USB 3.0 hub</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Raspberry Pi 4B 4GB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Intel Realsense D455</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Odrive 3.6 56V BLDC controller</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>N5055 330KV BLDC motor</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6200mAh 3S 35C LiPo battery</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ASSAN Dual-UBEC power module</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>iFlight Succex PDB</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$18</c:f>
-              <c:numCache/>
+              <c:f>Sheet1!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.7</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:firstSliceAng val="0"/>
         <c:holeSize val="50"/>
       </c:doughnutChart>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
+                <a:srgbClr val="1a1a1a"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>190440</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6353175" cy="3933825"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>931320</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>197640</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="0" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="7529040" y="190440"/>
+        <a:ext cx="6352920" cy="3933360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.14"/>
-    <col customWidth="1" min="3" max="3" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.57"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +1255,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -625,4198 +1269,4253 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="5">
-        <f>90*0.15</f>
+      <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <f aca="false">90*0.15</f>
         <v>13.5</v>
       </c>
-      <c r="D3" s="5">
-        <f t="shared" ref="D3:D8" si="1">B3*C3</f>
+      <c r="D3" s="5" t="n">
+        <f aca="false">B3*C3</f>
         <v>27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="5">
-        <f>40*0.15</f>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <f aca="false">40*0.15</f>
         <v>6</v>
       </c>
-      <c r="D4" s="5">
-        <f t="shared" si="1"/>
+      <c r="D4" s="5" t="n">
+        <f aca="false">B4*C4</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="5">
-        <f>45*0.15</f>
-        <v>6.75</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <f aca="false">105*0.15</f>
+        <v>15.75</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <f aca="false">B5*C5</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C6" s="5">
-        <f>86.24*0.15</f>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <f aca="false">86.24*0.15</f>
         <v>12.936</v>
       </c>
-      <c r="D6" s="5">
-        <f t="shared" si="1"/>
+      <c r="D6" s="5" t="n">
+        <f aca="false">B6*C6</f>
         <v>25.872</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="5">
-        <f t="shared" ref="C7:C8" si="2">300*0.15</f>
-        <v>45</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <f aca="false">170*0.15</f>
+        <v>25.5</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <f aca="false">B7*C7</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="5">
-        <f t="shared" si="2"/>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <f aca="false">300*0.15</f>
         <v>45</v>
       </c>
-      <c r="D8" s="5">
-        <f t="shared" si="1"/>
+      <c r="D8" s="5" t="n">
+        <f aca="false">B8*C8</f>
         <v>45</v>
       </c>
     </row>
-    <row r="9">
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <f>SUM(D3:D8)</f>
-        <v>162.372</v>
-      </c>
-    </row>
-    <row r="10">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <f aca="false">66*0.15</f>
+        <v>9.9</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <f aca="false">B9*C9</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="5">
-        <f>85*0.15</f>
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <f aca="false">0.15*58.8</f>
+        <v>8.82</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <f aca="false">B10*C10</f>
+        <v>17.64</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <f aca="false">0.15*47.75</f>
+        <v>7.1625</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <f aca="false">B11*C11</f>
+        <v>7.1625</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="n">
+        <f aca="false">SUM(D3:D11)</f>
+        <v>195.5745</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <f aca="false">85*0.15</f>
         <v>12.75</v>
       </c>
-      <c r="D10" s="5">
-        <f t="shared" ref="D10:D12" si="3">B10*C10</f>
+      <c r="D13" s="5" t="n">
+        <f aca="false">B13*C13</f>
         <v>12.75</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>55.0</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="3"/>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>55</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>245.0</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="3"/>
+      <c r="D14" s="5" t="n">
+        <f aca="false">B14*C14</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
         <v>245</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6">
-        <f>SUM(D10:D12)</f>
+      <c r="D15" s="5" t="n">
+        <f aca="false">B15*C15</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6" t="n">
+        <f aca="false">SUM(D13:D15)</f>
         <v>312.75</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C14" s="5">
-        <f>490*0.15</f>
-        <v>73.5</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" ref="D14:D18" si="4">B14*C14</f>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C15" s="5">
-        <f>150*0.15</f>
-        <v>22.5</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C16" s="5">
-        <f>128*0.15</f>
-        <v>19.2</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="4"/>
-        <v>76.8</v>
-      </c>
-    </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C17" s="5">
-        <f>85*0.15</f>
-        <v>12.75</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="4"/>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <f aca="false">490*0.15</f>
+        <v>73.5</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <f aca="false">B17*C17</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C18" s="5">
-        <f>69*0.15</f>
+      <c r="B18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <f aca="false">150*0.15</f>
+        <v>22.5</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <f aca="false">B18*C18</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <f aca="false">128*0.15</f>
+        <v>19.2</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <f aca="false">B19*C19</f>
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <f aca="false">85*0.15</f>
+        <v>12.75</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <f aca="false">B20*C20</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <f aca="false">69*0.15</f>
         <v>10.35</v>
       </c>
-      <c r="D18" s="5">
-        <f t="shared" si="4"/>
+      <c r="D21" s="5" t="n">
+        <f aca="false">B21*C21</f>
         <v>20.7</v>
       </c>
     </row>
-    <row r="19">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6">
-        <f>SUM(D14:D18)</f>
-        <v>347.25</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="5">
-        <f>267.16*0.15</f>
-        <v>40.074</v>
-      </c>
-      <c r="D20" s="5">
-        <f>B20*C20</f>
-        <v>40.074</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-    </row>
-    <row r="23">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24">
+      <c r="E22" s="6" t="n">
+        <f aca="false">SUM(D17:D21)</f>
+        <v>347.25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <f aca="false">267.16*0.15</f>
+        <v>40.074</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <f aca="false">B23*C23</f>
+        <v>40.074</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25">
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="5"/>
-      <c r="D43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="5">
-        <f>SUM(E9:E19)</f>
-        <v>822.372</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47">
+      <c r="D46" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <f aca="false">SUM(E12:E22)</f>
+        <v>855.5745</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
     </row>
-    <row r="104">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
     </row>
-    <row r="105">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
     </row>
-    <row r="107">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
     </row>
-    <row r="108">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
     </row>
-    <row r="110">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
     </row>
-    <row r="114">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
     </row>
-    <row r="118">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
     </row>
-    <row r="120">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
     </row>
-    <row r="124">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
     </row>
-    <row r="128">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
     </row>
-    <row r="129">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
     </row>
-    <row r="130">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
     </row>
-    <row r="132">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
     </row>
-    <row r="133">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
     </row>
-    <row r="134">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
     </row>
-    <row r="135">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
     </row>
-    <row r="136">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
     </row>
-    <row r="137">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
     </row>
-    <row r="138">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
     </row>
-    <row r="139">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
     </row>
-    <row r="144">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
     </row>
-    <row r="145">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
     </row>
-    <row r="149">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
     </row>
-    <row r="150">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
-    <row r="151">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
     </row>
-    <row r="154">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
     </row>
-    <row r="155">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
     </row>
-    <row r="156">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
     </row>
-    <row r="160">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
     </row>
-    <row r="161">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
     </row>
-    <row r="165">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
     </row>
-    <row r="166">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
     </row>
-    <row r="167">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
-    <row r="169">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
     </row>
-    <row r="171">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
     </row>
-    <row r="172">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
     </row>
-    <row r="173">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
     </row>
-    <row r="178">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
     </row>
-    <row r="179">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
-    <row r="182">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
-    <row r="202">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
     </row>
-    <row r="204">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
     </row>
-    <row r="206">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
     </row>
-    <row r="207">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="210">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
     </row>
-    <row r="211">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
     </row>
-    <row r="212">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="214">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
     </row>
-    <row r="215">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
     </row>
-    <row r="216">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
     </row>
-    <row r="217">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
     </row>
-    <row r="218">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
     </row>
-    <row r="219">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
     </row>
-    <row r="220">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
     </row>
-    <row r="221">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
     </row>
-    <row r="222">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
     </row>
-    <row r="223">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
     </row>
-    <row r="224">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
     </row>
-    <row r="225">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
     </row>
-    <row r="226">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
     </row>
-    <row r="227">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
     </row>
-    <row r="228">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
     </row>
-    <row r="229">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
     </row>
-    <row r="230">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
     </row>
-    <row r="231">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
     </row>
-    <row r="232">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
     </row>
-    <row r="233">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
     </row>
-    <row r="234">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
     </row>
-    <row r="235">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
     </row>
-    <row r="236">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
     </row>
-    <row r="237">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
     </row>
-    <row r="238">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
     </row>
-    <row r="239">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
     </row>
-    <row r="240">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
     </row>
-    <row r="241">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
     </row>
-    <row r="242">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
     </row>
-    <row r="243">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
     </row>
-    <row r="244">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
     </row>
-    <row r="245">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
     </row>
-    <row r="246">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
     </row>
-    <row r="247">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
     </row>
-    <row r="248">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
     </row>
-    <row r="249">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
     </row>
-    <row r="250">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
     </row>
-    <row r="251">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
     </row>
-    <row r="252">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
     </row>
-    <row r="253">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
-    <row r="254">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
     </row>
-    <row r="255">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
     </row>
-    <row r="256">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
-    <row r="257">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
     </row>
-    <row r="258">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
     </row>
-    <row r="259">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
     </row>
-    <row r="260">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
     </row>
-    <row r="261">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
     </row>
-    <row r="262">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
     </row>
-    <row r="263">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
     </row>
-    <row r="264">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
     </row>
-    <row r="265">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
     </row>
-    <row r="266">
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
     </row>
-    <row r="267">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
     </row>
-    <row r="268">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
     </row>
-    <row r="269">
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
     </row>
-    <row r="270">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
     </row>
-    <row r="271">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
     </row>
-    <row r="272">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
     </row>
-    <row r="273">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
     </row>
-    <row r="274">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
     </row>
-    <row r="275">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
     </row>
-    <row r="276">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
     </row>
-    <row r="277">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
     </row>
-    <row r="278">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
     </row>
-    <row r="279">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
     </row>
-    <row r="280">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
     </row>
-    <row r="281">
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
     </row>
-    <row r="282">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
     </row>
-    <row r="283">
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
     </row>
-    <row r="284">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
     </row>
-    <row r="285">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
     </row>
-    <row r="286">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
     </row>
-    <row r="287">
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
     </row>
-    <row r="288">
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
     </row>
-    <row r="289">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
     </row>
-    <row r="290">
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
     </row>
-    <row r="291">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
     </row>
-    <row r="292">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
     </row>
-    <row r="293">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
     </row>
-    <row r="294">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
     </row>
-    <row r="295">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
     </row>
-    <row r="296">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
     </row>
-    <row r="297">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
     </row>
-    <row r="298">
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
     </row>
-    <row r="299">
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
     </row>
-    <row r="300">
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
     </row>
-    <row r="301">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
     </row>
-    <row r="302">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
     </row>
-    <row r="303">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
     </row>
-    <row r="304">
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
     </row>
-    <row r="305">
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
     </row>
-    <row r="306">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
     </row>
-    <row r="307">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
     </row>
-    <row r="308">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
     </row>
-    <row r="309">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
     </row>
-    <row r="310">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
     </row>
-    <row r="311">
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
     </row>
-    <row r="312">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
     </row>
-    <row r="313">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
     </row>
-    <row r="314">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
     </row>
-    <row r="315">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
     </row>
-    <row r="316">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
     </row>
-    <row r="317">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
     </row>
-    <row r="318">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
     </row>
-    <row r="319">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
     </row>
-    <row r="320">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
     </row>
-    <row r="321">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
     </row>
-    <row r="322">
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
     </row>
-    <row r="323">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
     </row>
-    <row r="324">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
     </row>
-    <row r="325">
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
     </row>
-    <row r="326">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
     </row>
-    <row r="327">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
     </row>
-    <row r="328">
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
     </row>
-    <row r="329">
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
     </row>
-    <row r="330">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
     </row>
-    <row r="331">
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
     </row>
-    <row r="332">
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
     </row>
-    <row r="333">
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
     </row>
-    <row r="334">
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
     </row>
-    <row r="335">
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
     </row>
-    <row r="336">
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
     </row>
-    <row r="337">
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
     </row>
-    <row r="338">
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
     </row>
-    <row r="339">
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
     </row>
-    <row r="340">
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
     </row>
-    <row r="341">
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
     </row>
-    <row r="342">
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
     </row>
-    <row r="343">
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
     </row>
-    <row r="344">
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
     </row>
-    <row r="345">
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
     </row>
-    <row r="346">
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
     </row>
-    <row r="347">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
     </row>
-    <row r="348">
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
     </row>
-    <row r="349">
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
     </row>
-    <row r="350">
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
     </row>
-    <row r="351">
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
     </row>
-    <row r="352">
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
     </row>
-    <row r="353">
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
     </row>
-    <row r="354">
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
     </row>
-    <row r="355">
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
     </row>
-    <row r="356">
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
     </row>
-    <row r="357">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
     </row>
-    <row r="358">
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
     </row>
-    <row r="359">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
     </row>
-    <row r="360">
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
     </row>
-    <row r="361">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
     </row>
-    <row r="362">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
     </row>
-    <row r="363">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
     </row>
-    <row r="364">
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
     </row>
-    <row r="365">
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
     </row>
-    <row r="366">
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
     </row>
-    <row r="367">
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
     </row>
-    <row r="368">
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
     </row>
-    <row r="369">
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
     </row>
-    <row r="370">
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
     </row>
-    <row r="371">
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
     </row>
-    <row r="372">
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
     </row>
-    <row r="373">
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
     </row>
-    <row r="374">
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
     </row>
-    <row r="375">
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
     </row>
-    <row r="376">
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
     </row>
-    <row r="377">
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
     </row>
-    <row r="378">
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
     </row>
-    <row r="379">
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
     </row>
-    <row r="380">
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
     </row>
-    <row r="381">
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
     </row>
-    <row r="382">
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
     </row>
-    <row r="383">
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
     </row>
-    <row r="384">
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
     </row>
-    <row r="385">
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
     </row>
-    <row r="386">
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
     </row>
-    <row r="387">
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
     </row>
-    <row r="388">
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
     </row>
-    <row r="389">
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
     </row>
-    <row r="390">
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
     </row>
-    <row r="391">
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
     </row>
-    <row r="392">
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
     </row>
-    <row r="393">
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
     </row>
-    <row r="394">
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
     </row>
-    <row r="395">
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
     </row>
-    <row r="396">
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
     </row>
-    <row r="397">
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
     </row>
-    <row r="398">
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
     </row>
-    <row r="399">
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
     </row>
-    <row r="400">
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
     </row>
-    <row r="401">
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
     </row>
-    <row r="402">
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
     </row>
-    <row r="403">
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
     </row>
-    <row r="404">
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
     </row>
-    <row r="405">
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
     </row>
-    <row r="406">
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
     </row>
-    <row r="407">
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
     </row>
-    <row r="408">
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
     </row>
-    <row r="409">
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
     </row>
-    <row r="410">
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
     </row>
-    <row r="411">
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
     </row>
-    <row r="412">
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
     </row>
-    <row r="413">
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
     </row>
-    <row r="414">
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
     </row>
-    <row r="415">
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
     </row>
-    <row r="416">
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
     </row>
-    <row r="417">
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
     </row>
-    <row r="418">
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
     </row>
-    <row r="419">
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
     </row>
-    <row r="420">
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
     </row>
-    <row r="421">
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
     </row>
-    <row r="422">
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
     </row>
-    <row r="423">
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
     </row>
-    <row r="424">
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
     </row>
-    <row r="425">
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
     </row>
-    <row r="426">
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
     </row>
-    <row r="427">
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
     </row>
-    <row r="428">
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
     </row>
-    <row r="429">
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
     </row>
-    <row r="430">
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
     </row>
-    <row r="431">
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
     </row>
-    <row r="432">
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
     </row>
-    <row r="433">
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
     </row>
-    <row r="434">
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
     </row>
-    <row r="435">
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
     </row>
-    <row r="436">
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
     </row>
-    <row r="437">
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
     </row>
-    <row r="438">
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
     </row>
-    <row r="439">
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
     </row>
-    <row r="440">
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
     </row>
-    <row r="441">
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
     </row>
-    <row r="442">
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
     </row>
-    <row r="443">
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
     </row>
-    <row r="444">
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
     </row>
-    <row r="445">
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
     </row>
-    <row r="446">
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
     </row>
-    <row r="447">
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
     </row>
-    <row r="448">
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
     </row>
-    <row r="449">
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
     </row>
-    <row r="450">
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
     </row>
-    <row r="451">
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
     </row>
-    <row r="452">
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
     </row>
-    <row r="453">
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
     </row>
-    <row r="454">
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="5"/>
       <c r="D454" s="5"/>
     </row>
-    <row r="455">
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="5"/>
       <c r="D455" s="5"/>
     </row>
-    <row r="456">
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="5"/>
       <c r="D456" s="5"/>
     </row>
-    <row r="457">
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
     </row>
-    <row r="458">
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
     </row>
-    <row r="459">
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
     </row>
-    <row r="460">
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
     </row>
-    <row r="461">
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
     </row>
-    <row r="462">
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
     </row>
-    <row r="463">
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
     </row>
-    <row r="464">
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
     </row>
-    <row r="465">
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
     </row>
-    <row r="466">
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
     </row>
-    <row r="467">
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
     </row>
-    <row r="468">
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
     </row>
-    <row r="469">
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
     </row>
-    <row r="470">
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
     </row>
-    <row r="471">
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
     </row>
-    <row r="472">
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
     </row>
-    <row r="473">
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
     </row>
-    <row r="474">
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
     </row>
-    <row r="475">
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
     </row>
-    <row r="476">
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
     </row>
-    <row r="477">
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
     </row>
-    <row r="478">
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="5"/>
       <c r="D478" s="5"/>
     </row>
-    <row r="479">
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="5"/>
       <c r="D479" s="5"/>
     </row>
-    <row r="480">
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
     </row>
-    <row r="481">
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
     </row>
-    <row r="482">
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
     </row>
-    <row r="483">
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="5"/>
       <c r="D483" s="5"/>
     </row>
-    <row r="484">
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="5"/>
       <c r="D484" s="5"/>
     </row>
-    <row r="485">
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="5"/>
       <c r="D485" s="5"/>
     </row>
-    <row r="486">
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="5"/>
       <c r="D486" s="5"/>
     </row>
-    <row r="487">
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
     </row>
-    <row r="488">
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
     </row>
-    <row r="489">
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
     </row>
-    <row r="490">
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="5"/>
       <c r="D490" s="5"/>
     </row>
-    <row r="491">
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C491" s="5"/>
       <c r="D491" s="5"/>
     </row>
-    <row r="492">
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C492" s="5"/>
       <c r="D492" s="5"/>
     </row>
-    <row r="493">
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C493" s="5"/>
       <c r="D493" s="5"/>
     </row>
-    <row r="494">
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C494" s="5"/>
       <c r="D494" s="5"/>
     </row>
-    <row r="495">
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C495" s="5"/>
       <c r="D495" s="5"/>
     </row>
-    <row r="496">
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C496" s="5"/>
       <c r="D496" s="5"/>
     </row>
-    <row r="497">
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C497" s="5"/>
       <c r="D497" s="5"/>
     </row>
-    <row r="498">
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C498" s="5"/>
       <c r="D498" s="5"/>
     </row>
-    <row r="499">
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
     </row>
-    <row r="500">
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="5"/>
       <c r="D500" s="5"/>
     </row>
-    <row r="501">
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C501" s="5"/>
       <c r="D501" s="5"/>
     </row>
-    <row r="502">
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C502" s="5"/>
       <c r="D502" s="5"/>
     </row>
-    <row r="503">
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="5"/>
       <c r="D503" s="5"/>
     </row>
-    <row r="504">
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="5"/>
       <c r="D504" s="5"/>
     </row>
-    <row r="505">
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
     </row>
-    <row r="506">
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C506" s="5"/>
       <c r="D506" s="5"/>
     </row>
-    <row r="507">
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="5"/>
       <c r="D507" s="5"/>
     </row>
-    <row r="508">
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C508" s="5"/>
       <c r="D508" s="5"/>
     </row>
-    <row r="509">
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
     </row>
-    <row r="510">
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C510" s="5"/>
       <c r="D510" s="5"/>
     </row>
-    <row r="511">
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C511" s="5"/>
       <c r="D511" s="5"/>
     </row>
-    <row r="512">
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C512" s="5"/>
       <c r="D512" s="5"/>
     </row>
-    <row r="513">
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C513" s="5"/>
       <c r="D513" s="5"/>
     </row>
-    <row r="514">
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C514" s="5"/>
       <c r="D514" s="5"/>
     </row>
-    <row r="515">
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="5"/>
       <c r="D515" s="5"/>
     </row>
-    <row r="516">
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C516" s="5"/>
       <c r="D516" s="5"/>
     </row>
-    <row r="517">
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C517" s="5"/>
       <c r="D517" s="5"/>
     </row>
-    <row r="518">
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C518" s="5"/>
       <c r="D518" s="5"/>
     </row>
-    <row r="519">
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
     </row>
-    <row r="520">
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="5"/>
       <c r="D520" s="5"/>
     </row>
-    <row r="521">
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="5"/>
       <c r="D521" s="5"/>
     </row>
-    <row r="522">
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C522" s="5"/>
       <c r="D522" s="5"/>
     </row>
-    <row r="523">
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C523" s="5"/>
       <c r="D523" s="5"/>
     </row>
-    <row r="524">
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C524" s="5"/>
       <c r="D524" s="5"/>
     </row>
-    <row r="525">
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C525" s="5"/>
       <c r="D525" s="5"/>
     </row>
-    <row r="526">
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C526" s="5"/>
       <c r="D526" s="5"/>
     </row>
-    <row r="527">
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C527" s="5"/>
       <c r="D527" s="5"/>
     </row>
-    <row r="528">
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C528" s="5"/>
       <c r="D528" s="5"/>
     </row>
-    <row r="529">
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C529" s="5"/>
       <c r="D529" s="5"/>
     </row>
-    <row r="530">
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="5"/>
       <c r="D530" s="5"/>
     </row>
-    <row r="531">
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C531" s="5"/>
       <c r="D531" s="5"/>
     </row>
-    <row r="532">
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
     </row>
-    <row r="533">
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C533" s="5"/>
       <c r="D533" s="5"/>
     </row>
-    <row r="534">
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C534" s="5"/>
       <c r="D534" s="5"/>
     </row>
-    <row r="535">
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C535" s="5"/>
       <c r="D535" s="5"/>
     </row>
-    <row r="536">
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C536" s="5"/>
       <c r="D536" s="5"/>
     </row>
-    <row r="537">
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
     </row>
-    <row r="538">
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C538" s="5"/>
       <c r="D538" s="5"/>
     </row>
-    <row r="539">
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C539" s="5"/>
       <c r="D539" s="5"/>
     </row>
-    <row r="540">
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C540" s="5"/>
       <c r="D540" s="5"/>
     </row>
-    <row r="541">
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C541" s="5"/>
       <c r="D541" s="5"/>
     </row>
-    <row r="542">
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C542" s="5"/>
       <c r="D542" s="5"/>
     </row>
-    <row r="543">
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C543" s="5"/>
       <c r="D543" s="5"/>
     </row>
-    <row r="544">
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C544" s="5"/>
       <c r="D544" s="5"/>
     </row>
-    <row r="545">
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C545" s="5"/>
       <c r="D545" s="5"/>
     </row>
-    <row r="546">
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
     </row>
-    <row r="547">
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
     </row>
-    <row r="548">
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C548" s="5"/>
       <c r="D548" s="5"/>
     </row>
-    <row r="549">
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C549" s="5"/>
       <c r="D549" s="5"/>
     </row>
-    <row r="550">
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="5"/>
       <c r="D550" s="5"/>
     </row>
-    <row r="551">
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C551" s="5"/>
       <c r="D551" s="5"/>
     </row>
-    <row r="552">
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="5"/>
       <c r="D552" s="5"/>
     </row>
-    <row r="553">
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C553" s="5"/>
       <c r="D553" s="5"/>
     </row>
-    <row r="554">
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C554" s="5"/>
       <c r="D554" s="5"/>
     </row>
-    <row r="555">
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C555" s="5"/>
       <c r="D555" s="5"/>
     </row>
-    <row r="556">
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C556" s="5"/>
       <c r="D556" s="5"/>
     </row>
-    <row r="557">
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C557" s="5"/>
       <c r="D557" s="5"/>
     </row>
-    <row r="558">
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C558" s="5"/>
       <c r="D558" s="5"/>
     </row>
-    <row r="559">
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C559" s="5"/>
       <c r="D559" s="5"/>
     </row>
-    <row r="560">
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C560" s="5"/>
       <c r="D560" s="5"/>
     </row>
-    <row r="561">
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C561" s="5"/>
       <c r="D561" s="5"/>
     </row>
-    <row r="562">
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C562" s="5"/>
       <c r="D562" s="5"/>
     </row>
-    <row r="563">
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C563" s="5"/>
       <c r="D563" s="5"/>
     </row>
-    <row r="564">
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C564" s="5"/>
       <c r="D564" s="5"/>
     </row>
-    <row r="565">
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C565" s="5"/>
       <c r="D565" s="5"/>
     </row>
-    <row r="566">
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C566" s="5"/>
       <c r="D566" s="5"/>
     </row>
-    <row r="567">
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C567" s="5"/>
       <c r="D567" s="5"/>
     </row>
-    <row r="568">
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C568" s="5"/>
       <c r="D568" s="5"/>
     </row>
-    <row r="569">
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C569" s="5"/>
       <c r="D569" s="5"/>
     </row>
-    <row r="570">
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C570" s="5"/>
       <c r="D570" s="5"/>
     </row>
-    <row r="571">
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C571" s="5"/>
       <c r="D571" s="5"/>
     </row>
-    <row r="572">
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C572" s="5"/>
       <c r="D572" s="5"/>
     </row>
-    <row r="573">
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C573" s="5"/>
       <c r="D573" s="5"/>
     </row>
-    <row r="574">
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C574" s="5"/>
       <c r="D574" s="5"/>
     </row>
-    <row r="575">
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C575" s="5"/>
       <c r="D575" s="5"/>
     </row>
-    <row r="576">
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C576" s="5"/>
       <c r="D576" s="5"/>
     </row>
-    <row r="577">
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C577" s="5"/>
       <c r="D577" s="5"/>
     </row>
-    <row r="578">
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C578" s="5"/>
       <c r="D578" s="5"/>
     </row>
-    <row r="579">
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C579" s="5"/>
       <c r="D579" s="5"/>
     </row>
-    <row r="580">
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C580" s="5"/>
       <c r="D580" s="5"/>
     </row>
-    <row r="581">
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C581" s="5"/>
       <c r="D581" s="5"/>
     </row>
-    <row r="582">
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C582" s="5"/>
       <c r="D582" s="5"/>
     </row>
-    <row r="583">
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C583" s="5"/>
       <c r="D583" s="5"/>
     </row>
-    <row r="584">
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C584" s="5"/>
       <c r="D584" s="5"/>
     </row>
-    <row r="585">
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C585" s="5"/>
       <c r="D585" s="5"/>
     </row>
-    <row r="586">
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C586" s="5"/>
       <c r="D586" s="5"/>
     </row>
-    <row r="587">
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C587" s="5"/>
       <c r="D587" s="5"/>
     </row>
-    <row r="588">
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C588" s="5"/>
       <c r="D588" s="5"/>
     </row>
-    <row r="589">
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C589" s="5"/>
       <c r="D589" s="5"/>
     </row>
-    <row r="590">
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C590" s="5"/>
       <c r="D590" s="5"/>
     </row>
-    <row r="591">
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C591" s="5"/>
       <c r="D591" s="5"/>
     </row>
-    <row r="592">
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C592" s="5"/>
       <c r="D592" s="5"/>
     </row>
-    <row r="593">
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C593" s="5"/>
       <c r="D593" s="5"/>
     </row>
-    <row r="594">
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C594" s="5"/>
       <c r="D594" s="5"/>
     </row>
-    <row r="595">
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C595" s="5"/>
       <c r="D595" s="5"/>
     </row>
-    <row r="596">
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C596" s="5"/>
       <c r="D596" s="5"/>
     </row>
-    <row r="597">
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C597" s="5"/>
       <c r="D597" s="5"/>
     </row>
-    <row r="598">
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C598" s="5"/>
       <c r="D598" s="5"/>
     </row>
-    <row r="599">
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C599" s="5"/>
       <c r="D599" s="5"/>
     </row>
-    <row r="600">
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C600" s="5"/>
       <c r="D600" s="5"/>
     </row>
-    <row r="601">
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C601" s="5"/>
       <c r="D601" s="5"/>
     </row>
-    <row r="602">
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C602" s="5"/>
       <c r="D602" s="5"/>
     </row>
-    <row r="603">
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C603" s="5"/>
       <c r="D603" s="5"/>
     </row>
-    <row r="604">
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C604" s="5"/>
       <c r="D604" s="5"/>
     </row>
-    <row r="605">
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C605" s="5"/>
       <c r="D605" s="5"/>
     </row>
-    <row r="606">
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C606" s="5"/>
       <c r="D606" s="5"/>
     </row>
-    <row r="607">
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C607" s="5"/>
       <c r="D607" s="5"/>
     </row>
-    <row r="608">
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C608" s="5"/>
       <c r="D608" s="5"/>
     </row>
-    <row r="609">
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C609" s="5"/>
       <c r="D609" s="5"/>
     </row>
-    <row r="610">
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C610" s="5"/>
       <c r="D610" s="5"/>
     </row>
-    <row r="611">
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C611" s="5"/>
       <c r="D611" s="5"/>
     </row>
-    <row r="612">
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C612" s="5"/>
       <c r="D612" s="5"/>
     </row>
-    <row r="613">
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C613" s="5"/>
       <c r="D613" s="5"/>
     </row>
-    <row r="614">
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C614" s="5"/>
       <c r="D614" s="5"/>
     </row>
-    <row r="615">
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C615" s="5"/>
       <c r="D615" s="5"/>
     </row>
-    <row r="616">
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C616" s="5"/>
       <c r="D616" s="5"/>
     </row>
-    <row r="617">
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C617" s="5"/>
       <c r="D617" s="5"/>
     </row>
-    <row r="618">
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C618" s="5"/>
       <c r="D618" s="5"/>
     </row>
-    <row r="619">
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C619" s="5"/>
       <c r="D619" s="5"/>
     </row>
-    <row r="620">
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C620" s="5"/>
       <c r="D620" s="5"/>
     </row>
-    <row r="621">
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C621" s="5"/>
       <c r="D621" s="5"/>
     </row>
-    <row r="622">
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C622" s="5"/>
       <c r="D622" s="5"/>
     </row>
-    <row r="623">
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C623" s="5"/>
       <c r="D623" s="5"/>
     </row>
-    <row r="624">
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
     </row>
-    <row r="625">
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C625" s="5"/>
       <c r="D625" s="5"/>
     </row>
-    <row r="626">
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C626" s="5"/>
       <c r="D626" s="5"/>
     </row>
-    <row r="627">
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C627" s="5"/>
       <c r="D627" s="5"/>
     </row>
-    <row r="628">
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C628" s="5"/>
       <c r="D628" s="5"/>
     </row>
-    <row r="629">
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C629" s="5"/>
       <c r="D629" s="5"/>
     </row>
-    <row r="630">
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C630" s="5"/>
       <c r="D630" s="5"/>
     </row>
-    <row r="631">
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C631" s="5"/>
       <c r="D631" s="5"/>
     </row>
-    <row r="632">
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C632" s="5"/>
       <c r="D632" s="5"/>
     </row>
-    <row r="633">
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C633" s="5"/>
       <c r="D633" s="5"/>
     </row>
-    <row r="634">
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C634" s="5"/>
       <c r="D634" s="5"/>
     </row>
-    <row r="635">
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C635" s="5"/>
       <c r="D635" s="5"/>
     </row>
-    <row r="636">
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C636" s="5"/>
       <c r="D636" s="5"/>
     </row>
-    <row r="637">
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C637" s="5"/>
       <c r="D637" s="5"/>
     </row>
-    <row r="638">
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C638" s="5"/>
       <c r="D638" s="5"/>
     </row>
-    <row r="639">
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C639" s="5"/>
       <c r="D639" s="5"/>
     </row>
-    <row r="640">
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C640" s="5"/>
       <c r="D640" s="5"/>
     </row>
-    <row r="641">
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C641" s="5"/>
       <c r="D641" s="5"/>
     </row>
-    <row r="642">
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C642" s="5"/>
       <c r="D642" s="5"/>
     </row>
-    <row r="643">
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C643" s="5"/>
       <c r="D643" s="5"/>
     </row>
-    <row r="644">
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C644" s="5"/>
       <c r="D644" s="5"/>
     </row>
-    <row r="645">
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C645" s="5"/>
       <c r="D645" s="5"/>
     </row>
-    <row r="646">
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C646" s="5"/>
       <c r="D646" s="5"/>
     </row>
-    <row r="647">
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C647" s="5"/>
       <c r="D647" s="5"/>
     </row>
-    <row r="648">
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C648" s="5"/>
       <c r="D648" s="5"/>
     </row>
-    <row r="649">
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C649" s="5"/>
       <c r="D649" s="5"/>
     </row>
-    <row r="650">
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C650" s="5"/>
       <c r="D650" s="5"/>
     </row>
-    <row r="651">
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C651" s="5"/>
       <c r="D651" s="5"/>
     </row>
-    <row r="652">
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C652" s="5"/>
       <c r="D652" s="5"/>
     </row>
-    <row r="653">
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C653" s="5"/>
       <c r="D653" s="5"/>
     </row>
-    <row r="654">
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C654" s="5"/>
       <c r="D654" s="5"/>
     </row>
-    <row r="655">
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C655" s="5"/>
       <c r="D655" s="5"/>
     </row>
-    <row r="656">
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C656" s="5"/>
       <c r="D656" s="5"/>
     </row>
-    <row r="657">
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C657" s="5"/>
       <c r="D657" s="5"/>
     </row>
-    <row r="658">
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C658" s="5"/>
       <c r="D658" s="5"/>
     </row>
-    <row r="659">
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C659" s="5"/>
       <c r="D659" s="5"/>
     </row>
-    <row r="660">
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C660" s="5"/>
       <c r="D660" s="5"/>
     </row>
-    <row r="661">
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C661" s="5"/>
       <c r="D661" s="5"/>
     </row>
-    <row r="662">
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C662" s="5"/>
       <c r="D662" s="5"/>
     </row>
-    <row r="663">
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C663" s="5"/>
       <c r="D663" s="5"/>
     </row>
-    <row r="664">
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C664" s="5"/>
       <c r="D664" s="5"/>
     </row>
-    <row r="665">
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C665" s="5"/>
       <c r="D665" s="5"/>
     </row>
-    <row r="666">
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C666" s="5"/>
       <c r="D666" s="5"/>
     </row>
-    <row r="667">
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C667" s="5"/>
       <c r="D667" s="5"/>
     </row>
-    <row r="668">
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C668" s="5"/>
       <c r="D668" s="5"/>
     </row>
-    <row r="669">
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C669" s="5"/>
       <c r="D669" s="5"/>
     </row>
-    <row r="670">
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C670" s="5"/>
       <c r="D670" s="5"/>
     </row>
-    <row r="671">
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C671" s="5"/>
       <c r="D671" s="5"/>
     </row>
-    <row r="672">
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C672" s="5"/>
       <c r="D672" s="5"/>
     </row>
-    <row r="673">
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C673" s="5"/>
       <c r="D673" s="5"/>
     </row>
-    <row r="674">
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C674" s="5"/>
       <c r="D674" s="5"/>
     </row>
-    <row r="675">
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C675" s="5"/>
       <c r="D675" s="5"/>
     </row>
-    <row r="676">
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C676" s="5"/>
       <c r="D676" s="5"/>
     </row>
-    <row r="677">
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C677" s="5"/>
       <c r="D677" s="5"/>
     </row>
-    <row r="678">
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C678" s="5"/>
       <c r="D678" s="5"/>
     </row>
-    <row r="679">
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C679" s="5"/>
       <c r="D679" s="5"/>
     </row>
-    <row r="680">
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C680" s="5"/>
       <c r="D680" s="5"/>
     </row>
-    <row r="681">
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C681" s="5"/>
       <c r="D681" s="5"/>
     </row>
-    <row r="682">
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C682" s="5"/>
       <c r="D682" s="5"/>
     </row>
-    <row r="683">
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C683" s="5"/>
       <c r="D683" s="5"/>
     </row>
-    <row r="684">
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C684" s="5"/>
       <c r="D684" s="5"/>
     </row>
-    <row r="685">
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C685" s="5"/>
       <c r="D685" s="5"/>
     </row>
-    <row r="686">
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C686" s="5"/>
       <c r="D686" s="5"/>
     </row>
-    <row r="687">
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C687" s="5"/>
       <c r="D687" s="5"/>
     </row>
-    <row r="688">
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C688" s="5"/>
       <c r="D688" s="5"/>
     </row>
-    <row r="689">
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C689" s="5"/>
       <c r="D689" s="5"/>
     </row>
-    <row r="690">
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C690" s="5"/>
       <c r="D690" s="5"/>
     </row>
-    <row r="691">
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C691" s="5"/>
       <c r="D691" s="5"/>
     </row>
-    <row r="692">
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C692" s="5"/>
       <c r="D692" s="5"/>
     </row>
-    <row r="693">
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C693" s="5"/>
       <c r="D693" s="5"/>
     </row>
-    <row r="694">
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C694" s="5"/>
       <c r="D694" s="5"/>
     </row>
-    <row r="695">
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C695" s="5"/>
       <c r="D695" s="5"/>
     </row>
-    <row r="696">
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C696" s="5"/>
       <c r="D696" s="5"/>
     </row>
-    <row r="697">
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C697" s="5"/>
       <c r="D697" s="5"/>
     </row>
-    <row r="698">
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C698" s="5"/>
       <c r="D698" s="5"/>
     </row>
-    <row r="699">
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C699" s="5"/>
       <c r="D699" s="5"/>
     </row>
-    <row r="700">
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C700" s="5"/>
       <c r="D700" s="5"/>
     </row>
-    <row r="701">
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C701" s="5"/>
       <c r="D701" s="5"/>
     </row>
-    <row r="702">
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C702" s="5"/>
       <c r="D702" s="5"/>
     </row>
-    <row r="703">
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C703" s="5"/>
       <c r="D703" s="5"/>
     </row>
-    <row r="704">
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C704" s="5"/>
       <c r="D704" s="5"/>
     </row>
-    <row r="705">
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C705" s="5"/>
       <c r="D705" s="5"/>
     </row>
-    <row r="706">
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C706" s="5"/>
       <c r="D706" s="5"/>
     </row>
-    <row r="707">
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C707" s="5"/>
       <c r="D707" s="5"/>
     </row>
-    <row r="708">
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C708" s="5"/>
       <c r="D708" s="5"/>
     </row>
-    <row r="709">
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C709" s="5"/>
       <c r="D709" s="5"/>
     </row>
-    <row r="710">
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C710" s="5"/>
       <c r="D710" s="5"/>
     </row>
-    <row r="711">
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C711" s="5"/>
       <c r="D711" s="5"/>
     </row>
-    <row r="712">
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C712" s="5"/>
       <c r="D712" s="5"/>
     </row>
-    <row r="713">
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C713" s="5"/>
       <c r="D713" s="5"/>
     </row>
-    <row r="714">
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C714" s="5"/>
       <c r="D714" s="5"/>
     </row>
-    <row r="715">
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C715" s="5"/>
       <c r="D715" s="5"/>
     </row>
-    <row r="716">
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C716" s="5"/>
       <c r="D716" s="5"/>
     </row>
-    <row r="717">
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C717" s="5"/>
       <c r="D717" s="5"/>
     </row>
-    <row r="718">
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C718" s="5"/>
       <c r="D718" s="5"/>
     </row>
-    <row r="719">
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C719" s="5"/>
       <c r="D719" s="5"/>
     </row>
-    <row r="720">
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C720" s="5"/>
       <c r="D720" s="5"/>
     </row>
-    <row r="721">
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C721" s="5"/>
       <c r="D721" s="5"/>
     </row>
-    <row r="722">
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C722" s="5"/>
       <c r="D722" s="5"/>
     </row>
-    <row r="723">
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C723" s="5"/>
       <c r="D723" s="5"/>
     </row>
-    <row r="724">
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C724" s="5"/>
       <c r="D724" s="5"/>
     </row>
-    <row r="725">
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C725" s="5"/>
       <c r="D725" s="5"/>
     </row>
-    <row r="726">
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C726" s="5"/>
       <c r="D726" s="5"/>
     </row>
-    <row r="727">
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C727" s="5"/>
       <c r="D727" s="5"/>
     </row>
-    <row r="728">
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C728" s="5"/>
       <c r="D728" s="5"/>
     </row>
-    <row r="729">
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C729" s="5"/>
       <c r="D729" s="5"/>
     </row>
-    <row r="730">
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C730" s="5"/>
       <c r="D730" s="5"/>
     </row>
-    <row r="731">
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C731" s="5"/>
       <c r="D731" s="5"/>
     </row>
-    <row r="732">
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C732" s="5"/>
       <c r="D732" s="5"/>
     </row>
-    <row r="733">
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C733" s="5"/>
       <c r="D733" s="5"/>
     </row>
-    <row r="734">
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C734" s="5"/>
       <c r="D734" s="5"/>
     </row>
-    <row r="735">
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C735" s="5"/>
       <c r="D735" s="5"/>
     </row>
-    <row r="736">
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C736" s="5"/>
       <c r="D736" s="5"/>
     </row>
-    <row r="737">
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C737" s="5"/>
       <c r="D737" s="5"/>
     </row>
-    <row r="738">
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C738" s="5"/>
       <c r="D738" s="5"/>
     </row>
-    <row r="739">
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C739" s="5"/>
       <c r="D739" s="5"/>
     </row>
-    <row r="740">
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C740" s="5"/>
       <c r="D740" s="5"/>
     </row>
-    <row r="741">
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C741" s="5"/>
       <c r="D741" s="5"/>
     </row>
-    <row r="742">
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C742" s="5"/>
       <c r="D742" s="5"/>
     </row>
-    <row r="743">
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C743" s="5"/>
       <c r="D743" s="5"/>
     </row>
-    <row r="744">
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C744" s="5"/>
       <c r="D744" s="5"/>
     </row>
-    <row r="745">
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C745" s="5"/>
       <c r="D745" s="5"/>
     </row>
-    <row r="746">
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C746" s="5"/>
       <c r="D746" s="5"/>
     </row>
-    <row r="747">
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C747" s="5"/>
       <c r="D747" s="5"/>
     </row>
-    <row r="748">
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C748" s="5"/>
       <c r="D748" s="5"/>
     </row>
-    <row r="749">
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C749" s="5"/>
       <c r="D749" s="5"/>
     </row>
-    <row r="750">
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C750" s="5"/>
       <c r="D750" s="5"/>
     </row>
-    <row r="751">
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C751" s="5"/>
       <c r="D751" s="5"/>
     </row>
-    <row r="752">
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C752" s="5"/>
       <c r="D752" s="5"/>
     </row>
-    <row r="753">
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C753" s="5"/>
       <c r="D753" s="5"/>
     </row>
-    <row r="754">
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C754" s="5"/>
       <c r="D754" s="5"/>
     </row>
-    <row r="755">
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C755" s="5"/>
       <c r="D755" s="5"/>
     </row>
-    <row r="756">
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C756" s="5"/>
       <c r="D756" s="5"/>
     </row>
-    <row r="757">
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C757" s="5"/>
       <c r="D757" s="5"/>
     </row>
-    <row r="758">
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C758" s="5"/>
       <c r="D758" s="5"/>
     </row>
-    <row r="759">
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C759" s="5"/>
       <c r="D759" s="5"/>
     </row>
-    <row r="760">
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C760" s="5"/>
       <c r="D760" s="5"/>
     </row>
-    <row r="761">
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C761" s="5"/>
       <c r="D761" s="5"/>
     </row>
-    <row r="762">
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C762" s="5"/>
       <c r="D762" s="5"/>
     </row>
-    <row r="763">
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C763" s="5"/>
       <c r="D763" s="5"/>
     </row>
-    <row r="764">
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C764" s="5"/>
       <c r="D764" s="5"/>
     </row>
-    <row r="765">
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C765" s="5"/>
       <c r="D765" s="5"/>
     </row>
-    <row r="766">
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C766" s="5"/>
       <c r="D766" s="5"/>
     </row>
-    <row r="767">
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C767" s="5"/>
       <c r="D767" s="5"/>
     </row>
-    <row r="768">
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C768" s="5"/>
       <c r="D768" s="5"/>
     </row>
-    <row r="769">
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C769" s="5"/>
       <c r="D769" s="5"/>
     </row>
-    <row r="770">
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C770" s="5"/>
       <c r="D770" s="5"/>
     </row>
-    <row r="771">
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C771" s="5"/>
       <c r="D771" s="5"/>
     </row>
-    <row r="772">
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C772" s="5"/>
       <c r="D772" s="5"/>
     </row>
-    <row r="773">
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C773" s="5"/>
       <c r="D773" s="5"/>
     </row>
-    <row r="774">
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C774" s="5"/>
       <c r="D774" s="5"/>
     </row>
-    <row r="775">
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C775" s="5"/>
       <c r="D775" s="5"/>
     </row>
-    <row r="776">
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C776" s="5"/>
       <c r="D776" s="5"/>
     </row>
-    <row r="777">
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C777" s="5"/>
       <c r="D777" s="5"/>
     </row>
-    <row r="778">
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C778" s="5"/>
       <c r="D778" s="5"/>
     </row>
-    <row r="779">
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C779" s="5"/>
       <c r="D779" s="5"/>
     </row>
-    <row r="780">
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C780" s="5"/>
       <c r="D780" s="5"/>
     </row>
-    <row r="781">
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C781" s="5"/>
       <c r="D781" s="5"/>
     </row>
-    <row r="782">
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C782" s="5"/>
       <c r="D782" s="5"/>
     </row>
-    <row r="783">
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C783" s="5"/>
       <c r="D783" s="5"/>
     </row>
-    <row r="784">
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C784" s="5"/>
       <c r="D784" s="5"/>
     </row>
-    <row r="785">
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C785" s="5"/>
       <c r="D785" s="5"/>
     </row>
-    <row r="786">
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C786" s="5"/>
       <c r="D786" s="5"/>
     </row>
-    <row r="787">
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C787" s="5"/>
       <c r="D787" s="5"/>
     </row>
-    <row r="788">
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C788" s="5"/>
       <c r="D788" s="5"/>
     </row>
-    <row r="789">
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C789" s="5"/>
       <c r="D789" s="5"/>
     </row>
-    <row r="790">
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C790" s="5"/>
       <c r="D790" s="5"/>
     </row>
-    <row r="791">
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C791" s="5"/>
       <c r="D791" s="5"/>
     </row>
-    <row r="792">
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C792" s="5"/>
       <c r="D792" s="5"/>
     </row>
-    <row r="793">
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C793" s="5"/>
       <c r="D793" s="5"/>
     </row>
-    <row r="794">
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C794" s="5"/>
       <c r="D794" s="5"/>
     </row>
-    <row r="795">
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C795" s="5"/>
       <c r="D795" s="5"/>
     </row>
-    <row r="796">
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C796" s="5"/>
       <c r="D796" s="5"/>
     </row>
-    <row r="797">
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C797" s="5"/>
       <c r="D797" s="5"/>
     </row>
-    <row r="798">
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C798" s="5"/>
       <c r="D798" s="5"/>
     </row>
-    <row r="799">
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C799" s="5"/>
       <c r="D799" s="5"/>
     </row>
-    <row r="800">
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C800" s="5"/>
       <c r="D800" s="5"/>
     </row>
-    <row r="801">
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C801" s="5"/>
       <c r="D801" s="5"/>
     </row>
-    <row r="802">
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C802" s="5"/>
       <c r="D802" s="5"/>
     </row>
-    <row r="803">
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C803" s="5"/>
       <c r="D803" s="5"/>
     </row>
-    <row r="804">
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C804" s="5"/>
       <c r="D804" s="5"/>
     </row>
-    <row r="805">
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C805" s="5"/>
       <c r="D805" s="5"/>
     </row>
-    <row r="806">
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C806" s="5"/>
       <c r="D806" s="5"/>
     </row>
-    <row r="807">
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C807" s="5"/>
       <c r="D807" s="5"/>
     </row>
-    <row r="808">
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C808" s="5"/>
       <c r="D808" s="5"/>
     </row>
-    <row r="809">
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C809" s="5"/>
       <c r="D809" s="5"/>
     </row>
-    <row r="810">
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C810" s="5"/>
       <c r="D810" s="5"/>
     </row>
-    <row r="811">
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C811" s="5"/>
       <c r="D811" s="5"/>
     </row>
-    <row r="812">
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C812" s="5"/>
       <c r="D812" s="5"/>
     </row>
-    <row r="813">
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C813" s="5"/>
       <c r="D813" s="5"/>
     </row>
-    <row r="814">
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C814" s="5"/>
       <c r="D814" s="5"/>
     </row>
-    <row r="815">
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C815" s="5"/>
       <c r="D815" s="5"/>
     </row>
-    <row r="816">
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C816" s="5"/>
       <c r="D816" s="5"/>
     </row>
-    <row r="817">
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C817" s="5"/>
       <c r="D817" s="5"/>
     </row>
-    <row r="818">
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C818" s="5"/>
       <c r="D818" s="5"/>
     </row>
-    <row r="819">
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C819" s="5"/>
       <c r="D819" s="5"/>
     </row>
-    <row r="820">
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C820" s="5"/>
       <c r="D820" s="5"/>
     </row>
-    <row r="821">
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C821" s="5"/>
       <c r="D821" s="5"/>
     </row>
-    <row r="822">
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C822" s="5"/>
       <c r="D822" s="5"/>
     </row>
-    <row r="823">
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C823" s="5"/>
       <c r="D823" s="5"/>
     </row>
-    <row r="824">
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C824" s="5"/>
       <c r="D824" s="5"/>
     </row>
-    <row r="825">
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C825" s="5"/>
       <c r="D825" s="5"/>
     </row>
-    <row r="826">
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C826" s="5"/>
       <c r="D826" s="5"/>
     </row>
-    <row r="827">
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C827" s="5"/>
       <c r="D827" s="5"/>
     </row>
-    <row r="828">
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C828" s="5"/>
       <c r="D828" s="5"/>
     </row>
-    <row r="829">
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C829" s="5"/>
       <c r="D829" s="5"/>
     </row>
-    <row r="830">
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C830" s="5"/>
       <c r="D830" s="5"/>
     </row>
-    <row r="831">
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C831" s="5"/>
       <c r="D831" s="5"/>
     </row>
-    <row r="832">
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C832" s="5"/>
       <c r="D832" s="5"/>
     </row>
-    <row r="833">
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C833" s="5"/>
       <c r="D833" s="5"/>
     </row>
-    <row r="834">
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C834" s="5"/>
       <c r="D834" s="5"/>
     </row>
-    <row r="835">
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C835" s="5"/>
       <c r="D835" s="5"/>
     </row>
-    <row r="836">
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C836" s="5"/>
       <c r="D836" s="5"/>
     </row>
-    <row r="837">
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C837" s="5"/>
       <c r="D837" s="5"/>
     </row>
-    <row r="838">
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C838" s="5"/>
       <c r="D838" s="5"/>
     </row>
-    <row r="839">
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C839" s="5"/>
       <c r="D839" s="5"/>
     </row>
-    <row r="840">
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C840" s="5"/>
       <c r="D840" s="5"/>
     </row>
-    <row r="841">
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C841" s="5"/>
       <c r="D841" s="5"/>
     </row>
-    <row r="842">
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C842" s="5"/>
       <c r="D842" s="5"/>
     </row>
-    <row r="843">
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C843" s="5"/>
       <c r="D843" s="5"/>
     </row>
-    <row r="844">
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C844" s="5"/>
       <c r="D844" s="5"/>
     </row>
-    <row r="845">
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C845" s="5"/>
       <c r="D845" s="5"/>
     </row>
-    <row r="846">
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C846" s="5"/>
       <c r="D846" s="5"/>
     </row>
-    <row r="847">
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C847" s="5"/>
       <c r="D847" s="5"/>
     </row>
-    <row r="848">
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C848" s="5"/>
       <c r="D848" s="5"/>
     </row>
-    <row r="849">
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C849" s="5"/>
       <c r="D849" s="5"/>
     </row>
-    <row r="850">
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C850" s="5"/>
       <c r="D850" s="5"/>
     </row>
-    <row r="851">
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C851" s="5"/>
       <c r="D851" s="5"/>
     </row>
-    <row r="852">
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C852" s="5"/>
       <c r="D852" s="5"/>
     </row>
-    <row r="853">
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C853" s="5"/>
       <c r="D853" s="5"/>
     </row>
-    <row r="854">
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C854" s="5"/>
       <c r="D854" s="5"/>
     </row>
-    <row r="855">
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C855" s="5"/>
       <c r="D855" s="5"/>
     </row>
-    <row r="856">
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C856" s="5"/>
       <c r="D856" s="5"/>
     </row>
-    <row r="857">
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C857" s="5"/>
       <c r="D857" s="5"/>
     </row>
-    <row r="858">
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C858" s="5"/>
       <c r="D858" s="5"/>
     </row>
-    <row r="859">
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C859" s="5"/>
       <c r="D859" s="5"/>
     </row>
-    <row r="860">
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C860" s="5"/>
       <c r="D860" s="5"/>
     </row>
-    <row r="861">
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C861" s="5"/>
       <c r="D861" s="5"/>
     </row>
-    <row r="862">
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C862" s="5"/>
       <c r="D862" s="5"/>
     </row>
-    <row r="863">
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C863" s="5"/>
       <c r="D863" s="5"/>
     </row>
-    <row r="864">
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C864" s="5"/>
       <c r="D864" s="5"/>
     </row>
-    <row r="865">
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C865" s="5"/>
       <c r="D865" s="5"/>
     </row>
-    <row r="866">
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C866" s="5"/>
       <c r="D866" s="5"/>
     </row>
-    <row r="867">
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C867" s="5"/>
       <c r="D867" s="5"/>
     </row>
-    <row r="868">
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C868" s="5"/>
       <c r="D868" s="5"/>
     </row>
-    <row r="869">
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C869" s="5"/>
       <c r="D869" s="5"/>
     </row>
-    <row r="870">
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C870" s="5"/>
       <c r="D870" s="5"/>
     </row>
-    <row r="871">
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C871" s="5"/>
       <c r="D871" s="5"/>
     </row>
-    <row r="872">
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C872" s="5"/>
       <c r="D872" s="5"/>
     </row>
-    <row r="873">
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C873" s="5"/>
       <c r="D873" s="5"/>
     </row>
-    <row r="874">
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C874" s="5"/>
       <c r="D874" s="5"/>
     </row>
-    <row r="875">
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C875" s="5"/>
       <c r="D875" s="5"/>
     </row>
-    <row r="876">
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C876" s="5"/>
       <c r="D876" s="5"/>
     </row>
-    <row r="877">
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C877" s="5"/>
       <c r="D877" s="5"/>
     </row>
-    <row r="878">
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C878" s="5"/>
       <c r="D878" s="5"/>
     </row>
-    <row r="879">
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C879" s="5"/>
       <c r="D879" s="5"/>
     </row>
-    <row r="880">
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C880" s="5"/>
       <c r="D880" s="5"/>
     </row>
-    <row r="881">
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C881" s="5"/>
       <c r="D881" s="5"/>
     </row>
-    <row r="882">
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C882" s="5"/>
       <c r="D882" s="5"/>
     </row>
-    <row r="883">
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C883" s="5"/>
       <c r="D883" s="5"/>
     </row>
-    <row r="884">
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C884" s="5"/>
       <c r="D884" s="5"/>
     </row>
-    <row r="885">
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C885" s="5"/>
       <c r="D885" s="5"/>
     </row>
-    <row r="886">
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C886" s="5"/>
       <c r="D886" s="5"/>
     </row>
-    <row r="887">
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C887" s="5"/>
       <c r="D887" s="5"/>
     </row>
-    <row r="888">
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C888" s="5"/>
       <c r="D888" s="5"/>
     </row>
-    <row r="889">
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C889" s="5"/>
       <c r="D889" s="5"/>
     </row>
-    <row r="890">
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C890" s="5"/>
       <c r="D890" s="5"/>
     </row>
-    <row r="891">
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C891" s="5"/>
       <c r="D891" s="5"/>
     </row>
-    <row r="892">
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C892" s="5"/>
       <c r="D892" s="5"/>
     </row>
-    <row r="893">
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C893" s="5"/>
       <c r="D893" s="5"/>
     </row>
-    <row r="894">
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C894" s="5"/>
       <c r="D894" s="5"/>
     </row>
-    <row r="895">
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C895" s="5"/>
       <c r="D895" s="5"/>
     </row>
-    <row r="896">
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C896" s="5"/>
       <c r="D896" s="5"/>
     </row>
-    <row r="897">
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C897" s="5"/>
       <c r="D897" s="5"/>
     </row>
-    <row r="898">
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C898" s="5"/>
       <c r="D898" s="5"/>
     </row>
-    <row r="899">
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C899" s="5"/>
       <c r="D899" s="5"/>
     </row>
-    <row r="900">
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C900" s="5"/>
       <c r="D900" s="5"/>
     </row>
-    <row r="901">
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C901" s="5"/>
       <c r="D901" s="5"/>
     </row>
-    <row r="902">
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C902" s="5"/>
       <c r="D902" s="5"/>
     </row>
-    <row r="903">
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C903" s="5"/>
       <c r="D903" s="5"/>
     </row>
-    <row r="904">
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C904" s="5"/>
       <c r="D904" s="5"/>
     </row>
-    <row r="905">
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C905" s="5"/>
       <c r="D905" s="5"/>
     </row>
-    <row r="906">
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C906" s="5"/>
       <c r="D906" s="5"/>
     </row>
-    <row r="907">
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C907" s="5"/>
       <c r="D907" s="5"/>
     </row>
-    <row r="908">
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C908" s="5"/>
       <c r="D908" s="5"/>
     </row>
-    <row r="909">
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C909" s="5"/>
       <c r="D909" s="5"/>
     </row>
-    <row r="910">
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C910" s="5"/>
       <c r="D910" s="5"/>
     </row>
-    <row r="911">
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C911" s="5"/>
       <c r="D911" s="5"/>
     </row>
-    <row r="912">
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C912" s="5"/>
       <c r="D912" s="5"/>
     </row>
-    <row r="913">
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C913" s="5"/>
       <c r="D913" s="5"/>
     </row>
-    <row r="914">
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C914" s="5"/>
       <c r="D914" s="5"/>
     </row>
-    <row r="915">
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C915" s="5"/>
       <c r="D915" s="5"/>
     </row>
-    <row r="916">
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C916" s="5"/>
       <c r="D916" s="5"/>
     </row>
-    <row r="917">
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C917" s="5"/>
       <c r="D917" s="5"/>
     </row>
-    <row r="918">
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C918" s="5"/>
       <c r="D918" s="5"/>
     </row>
-    <row r="919">
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C919" s="5"/>
       <c r="D919" s="5"/>
     </row>
-    <row r="920">
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C920" s="5"/>
       <c r="D920" s="5"/>
     </row>
-    <row r="921">
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C921" s="5"/>
       <c r="D921" s="5"/>
     </row>
-    <row r="922">
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C922" s="5"/>
       <c r="D922" s="5"/>
     </row>
-    <row r="923">
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C923" s="5"/>
       <c r="D923" s="5"/>
     </row>
-    <row r="924">
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C924" s="5"/>
       <c r="D924" s="5"/>
     </row>
-    <row r="925">
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C925" s="5"/>
       <c r="D925" s="5"/>
     </row>
-    <row r="926">
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C926" s="5"/>
       <c r="D926" s="5"/>
     </row>
-    <row r="927">
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C927" s="5"/>
       <c r="D927" s="5"/>
     </row>
-    <row r="928">
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C928" s="5"/>
       <c r="D928" s="5"/>
     </row>
-    <row r="929">
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C929" s="5"/>
       <c r="D929" s="5"/>
     </row>
-    <row r="930">
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C930" s="5"/>
       <c r="D930" s="5"/>
     </row>
-    <row r="931">
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C931" s="5"/>
       <c r="D931" s="5"/>
     </row>
-    <row r="932">
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C932" s="5"/>
       <c r="D932" s="5"/>
     </row>
-    <row r="933">
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C933" s="5"/>
       <c r="D933" s="5"/>
     </row>
-    <row r="934">
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C934" s="5"/>
       <c r="D934" s="5"/>
     </row>
-    <row r="935">
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C935" s="5"/>
       <c r="D935" s="5"/>
     </row>
-    <row r="936">
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C936" s="5"/>
       <c r="D936" s="5"/>
     </row>
-    <row r="937">
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C937" s="5"/>
       <c r="D937" s="5"/>
     </row>
-    <row r="938">
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C938" s="5"/>
       <c r="D938" s="5"/>
     </row>
-    <row r="939">
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C939" s="5"/>
       <c r="D939" s="5"/>
     </row>
-    <row r="940">
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C940" s="5"/>
       <c r="D940" s="5"/>
     </row>
-    <row r="941">
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C941" s="5"/>
       <c r="D941" s="5"/>
     </row>
-    <row r="942">
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C942" s="5"/>
       <c r="D942" s="5"/>
     </row>
-    <row r="943">
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C943" s="5"/>
       <c r="D943" s="5"/>
     </row>
-    <row r="944">
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C944" s="5"/>
       <c r="D944" s="5"/>
     </row>
-    <row r="945">
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C945" s="5"/>
       <c r="D945" s="5"/>
     </row>
-    <row r="946">
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C946" s="5"/>
       <c r="D946" s="5"/>
     </row>
-    <row r="947">
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C947" s="5"/>
       <c r="D947" s="5"/>
     </row>
-    <row r="948">
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C948" s="5"/>
       <c r="D948" s="5"/>
     </row>
-    <row r="949">
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C949" s="5"/>
       <c r="D949" s="5"/>
     </row>
-    <row r="950">
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C950" s="5"/>
       <c r="D950" s="5"/>
     </row>
-    <row r="951">
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C951" s="5"/>
       <c r="D951" s="5"/>
     </row>
-    <row r="952">
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C952" s="5"/>
       <c r="D952" s="5"/>
     </row>
-    <row r="953">
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C953" s="5"/>
       <c r="D953" s="5"/>
     </row>
-    <row r="954">
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C954" s="5"/>
       <c r="D954" s="5"/>
     </row>
-    <row r="955">
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C955" s="5"/>
       <c r="D955" s="5"/>
     </row>
-    <row r="956">
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C956" s="5"/>
       <c r="D956" s="5"/>
     </row>
-    <row r="957">
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C957" s="5"/>
       <c r="D957" s="5"/>
     </row>
-    <row r="958">
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C958" s="5"/>
       <c r="D958" s="5"/>
     </row>
-    <row r="959">
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C959" s="5"/>
       <c r="D959" s="5"/>
     </row>
-    <row r="960">
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C960" s="5"/>
       <c r="D960" s="5"/>
     </row>
-    <row r="961">
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C961" s="5"/>
       <c r="D961" s="5"/>
     </row>
-    <row r="962">
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C962" s="5"/>
       <c r="D962" s="5"/>
     </row>
-    <row r="963">
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C963" s="5"/>
       <c r="D963" s="5"/>
     </row>
-    <row r="964">
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C964" s="5"/>
       <c r="D964" s="5"/>
     </row>
-    <row r="965">
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C965" s="5"/>
       <c r="D965" s="5"/>
     </row>
-    <row r="966">
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C966" s="5"/>
       <c r="D966" s="5"/>
     </row>
-    <row r="967">
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C967" s="5"/>
       <c r="D967" s="5"/>
     </row>
-    <row r="968">
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C968" s="5"/>
       <c r="D968" s="5"/>
     </row>
-    <row r="969">
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C969" s="5"/>
       <c r="D969" s="5"/>
     </row>
-    <row r="970">
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C970" s="5"/>
       <c r="D970" s="5"/>
     </row>
-    <row r="971">
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C971" s="5"/>
       <c r="D971" s="5"/>
     </row>
-    <row r="972">
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C972" s="5"/>
       <c r="D972" s="5"/>
     </row>
-    <row r="973">
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C973" s="5"/>
       <c r="D973" s="5"/>
     </row>
-    <row r="974">
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C974" s="5"/>
       <c r="D974" s="5"/>
     </row>
-    <row r="975">
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C975" s="5"/>
       <c r="D975" s="5"/>
     </row>
-    <row r="976">
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C976" s="5"/>
       <c r="D976" s="5"/>
     </row>
-    <row r="977">
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C977" s="5"/>
       <c r="D977" s="5"/>
     </row>
-    <row r="978">
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C978" s="5"/>
       <c r="D978" s="5"/>
     </row>
-    <row r="979">
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C979" s="5"/>
       <c r="D979" s="5"/>
     </row>
-    <row r="980">
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C980" s="5"/>
       <c r="D980" s="5"/>
     </row>
-    <row r="981">
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C981" s="5"/>
       <c r="D981" s="5"/>
     </row>
-    <row r="982">
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C982" s="5"/>
       <c r="D982" s="5"/>
     </row>
-    <row r="983">
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C983" s="5"/>
       <c r="D983" s="5"/>
     </row>
-    <row r="984">
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C984" s="5"/>
       <c r="D984" s="5"/>
     </row>
-    <row r="985">
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C985" s="5"/>
       <c r="D985" s="5"/>
     </row>
-    <row r="986">
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C986" s="5"/>
       <c r="D986" s="5"/>
     </row>
-    <row r="987">
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C987" s="5"/>
       <c r="D987" s="5"/>
     </row>
-    <row r="988">
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C988" s="5"/>
       <c r="D988" s="5"/>
     </row>
-    <row r="989">
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C989" s="5"/>
       <c r="D989" s="5"/>
     </row>
-    <row r="990">
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C990" s="5"/>
       <c r="D990" s="5"/>
     </row>
-    <row r="991">
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C991" s="5"/>
       <c r="D991" s="5"/>
     </row>
-    <row r="992">
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C992" s="5"/>
       <c r="D992" s="5"/>
     </row>
-    <row r="993">
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C993" s="5"/>
       <c r="D993" s="5"/>
     </row>
-    <row r="994">
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C994" s="5"/>
       <c r="D994" s="5"/>
     </row>
-    <row r="995">
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C995" s="5"/>
       <c r="D995" s="5"/>
     </row>
-    <row r="996">
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C996" s="5"/>
       <c r="D996" s="5"/>
     </row>
-    <row r="997">
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C997" s="5"/>
       <c r="D997" s="5"/>
     </row>
-    <row r="998">
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C998" s="5"/>
       <c r="D998" s="5"/>
     </row>
-    <row r="999">
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C999" s="5"/>
       <c r="D999" s="5"/>
     </row>
-    <row r="1000">
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1000" s="5"/>
       <c r="D1000" s="5"/>
     </row>
-    <row r="1001">
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1001" s="5"/>
       <c r="D1001" s="5"/>
     </row>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1002" s="5"/>
+      <c r="D1002" s="5"/>
+    </row>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1003" s="5"/>
+      <c r="D1003" s="5"/>
+    </row>
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1004" s="5"/>
+      <c r="D1004" s="5"/>
+    </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/hardware/BOM.xlsx
+++ b/hardware/BOM.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julianho/Juho/_BRANDEIS_/COSI 119A/TennisBot/hardware/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92C5AE5-DC48-9043-829D-EAD31D034745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="TennisBot v1" sheetId="1" r:id="rId1"/>
+    <sheet name="TennisBot v2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -20,132 +34,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
-    <t xml:space="preserve">Electronics</t>
+    <t>Product Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Name</t>
+    <t>Quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity</t>
+    <t>Unit Price in USD (As of Nov '20)</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Price in USD (As of Nov '20)</t>
+    <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Total</t>
+    <t>ST3215 Servo</t>
   </si>
   <si>
-    <t xml:space="preserve">ST3215 Servo</t>
+    <t>URT-1 servo control board</t>
   </si>
   <si>
-    <t xml:space="preserve">URT-1 servo control board</t>
+    <t>Wraith32 V2 BLDC Controller</t>
   </si>
   <si>
-    <t xml:space="preserve">Wraith32 V2 BLDC Controller</t>
+    <t>N3548 900KV BLDC motor</t>
   </si>
   <si>
-    <t xml:space="preserve">N3548 900KV BLDC motor</t>
+    <t>W9235 BLDC motor</t>
   </si>
   <si>
-    <t xml:space="preserve">W9235 BLDC motor</t>
+    <t>AS5047P encoder</t>
   </si>
   <si>
-    <t xml:space="preserve">VESC 4.12 BLDC Controller</t>
+    <t>AS5048A encoder</t>
   </si>
   <si>
-    <t xml:space="preserve">AS5047P encoder</t>
+    <t>ESP32 WROVER-B</t>
   </si>
   <si>
-    <t xml:space="preserve">AS5048A encoder</t>
+    <t>4 ports powered USB 3.0 hub</t>
   </si>
   <si>
-    <t xml:space="preserve">ESP32 WROVER-B</t>
+    <t>Raspberry Pi 4B 4GB</t>
   </si>
   <si>
-    <t xml:space="preserve">4 ports powered USB 3.0 hub</t>
+    <t>Intel Realsense D455</t>
   </si>
   <si>
-    <t xml:space="preserve">Raspberry Pi 4B 4GB</t>
+    <t>Odrive 3.6 56V BLDC controller</t>
   </si>
   <si>
-    <t xml:space="preserve">Intel Realsense D455</t>
+    <t>N5055 330KV BLDC motor</t>
   </si>
   <si>
-    <t xml:space="preserve">Odrive 3.6 56V BLDC controller</t>
+    <t>6200mAh 3S 35C LiPo battery</t>
   </si>
   <si>
-    <t xml:space="preserve">N5055 330KV BLDC motor</t>
+    <t>ASSAN Dual-UBEC power module</t>
   </si>
   <si>
-    <t xml:space="preserve">6200mAh 3S 35C LiPo battery</t>
+    <t>iFlight Succex PDB</t>
   </si>
   <si>
-    <t xml:space="preserve">ASSAN Dual-UBEC power module</t>
+    <t>TennisBot v1</t>
   </si>
   <si>
-    <t xml:space="preserve">iFlight Succex PDB</t>
+    <t>TennisBot v2</t>
   </si>
   <si>
-    <t xml:space="preserve">Misc. cables and connectors</t>
+    <t>4040 metal beam (35cm x2, 22cm x1)</t>
+  </si>
+  <si>
+    <t>M4 16mm screws (50 pcs)</t>
+  </si>
+  <si>
+    <t>M4 8mm screws (50 pcs)</t>
+  </si>
+  <si>
+    <t>M3 12mm screws (50 pcs)</t>
+  </si>
+  <si>
+    <t>M3 8mm screws (50 pcs)</t>
+  </si>
+  <si>
+    <t>M2.5 5mm screws (50 pcs)</t>
+  </si>
+  <si>
+    <t>M2 5mm screws (50 pcs)</t>
+  </si>
+  <si>
+    <t>M4 hex metal beam 80mm (10 pcs)</t>
+  </si>
+  <si>
+    <t>M3 hex metal beam 25mm (10 pcs)</t>
+  </si>
+  <si>
+    <t>Abec 7 90mm wheels</t>
+  </si>
+  <si>
+    <t>18T 5mm ID HTD5 pulley</t>
+  </si>
+  <si>
+    <t>F687ZZ bearing</t>
+  </si>
+  <si>
+    <t>75mm ID 95mm OD bearing</t>
+  </si>
+  <si>
+    <t>AMASS XT60E-M connector</t>
+  </si>
+  <si>
+    <t>AMASS XT60 Female connector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1A1A1A"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -159,88 +197,51 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -299,18 +300,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF1A1A1A"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:doughnutChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -318,213 +338,321 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4285f4"/>
+              <a:srgbClr val="4285F4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4285f4"/>
+                <a:srgbClr val="4285F4"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ea4335"/>
+                <a:srgbClr val="EA4335"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="fbbc04"/>
+                <a:srgbClr val="FBBC04"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="34a853"/>
+                <a:srgbClr val="34A853"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff6d01"/>
+                <a:srgbClr val="FF6D01"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="46bdc6"/>
+                <a:srgbClr val="46BDC6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7baaf7"/>
+                <a:srgbClr val="7BAAF7"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="f07b72"/>
+                <a:srgbClr val="F07B72"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="fcd04f"/>
+                <a:srgbClr val="FCD04F"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="71c287"/>
+                <a:srgbClr val="71C287"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff994d"/>
+                <a:srgbClr val="FF994D"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7ed1d7"/>
+                <a:srgbClr val="7ED1D7"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="b3cefb"/>
+                <a:srgbClr val="B3CEFB"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="f7b4ae"/>
+                <a:srgbClr val="F7B4AE"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="fcd6a1"/>
+                <a:srgbClr val="FCD6A1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a4ccab"/>
+                <a:srgbClr val="A4CCAB"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="7E0021"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="83CAFF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="314004"/>
@@ -533,24 +661,29 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-E2A6-0745-9769-F140C54E61B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -558,23 +691,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -582,23 +721,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -606,23 +751,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -630,23 +781,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -654,23 +811,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -678,23 +841,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -702,23 +871,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -726,23 +901,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -750,23 +931,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -774,23 +961,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -798,23 +991,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -822,23 +1021,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -846,23 +1051,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -870,23 +1081,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -894,23 +1111,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -918,23 +1141,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -942,23 +1171,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="17"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -966,23 +1201,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="18"/>
-              <c:numFmt formatCode="\$#,##0.00" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -990,14 +1231,26 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-E2A6-0745-9769-F140C54E61B0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1005,6 +1258,7 @@
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1012,14 +1266,18 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$21</c:f>
+              <c:f>'TennisBot v1'!$A$3:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>ST3215 Servo</c:v>
                 </c:pt>
@@ -1036,7 +1294,7 @@
                   <c:v>W9235 BLDC motor</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>VESC 4.12 BLDC Controller</c:v>
+                  <c:v>Odrive 3.6 56V BLDC controller</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>AS5047P encoder</c:v>
@@ -1048,44 +1306,62 @@
                   <c:v>ESP32 WROVER-B</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>Raspberry Pi 4B 4GB</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4 ports powered USB 3.0 hub</c:v>
+                  <c:v>4040 metal beam (35cm x2, 22cm x1)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Raspberry Pi 4B 4GB</c:v>
+                  <c:v>Abec 7 90mm wheels</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Intel Realsense D455</c:v>
+                  <c:v>M4 16mm screws (50 pcs)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v/>
+                  <c:v>M4 8mm screws (50 pcs)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Odrive 3.6 56V BLDC controller</c:v>
+                  <c:v>M3 12mm screws (50 pcs)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>N5055 330KV BLDC motor</c:v>
+                  <c:v>M3 8mm screws (50 pcs)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6200mAh 3S 35C LiPo battery</c:v>
+                  <c:v>M2.5 5mm screws (50 pcs)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>ASSAN Dual-UBEC power module</c:v>
+                  <c:v>M2 5mm screws (50 pcs)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>iFlight Succex PDB</c:v>
+                  <c:v>M4 hex metal beam 80mm (10 pcs)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>M3 hex metal beam 25mm (10 pcs)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75mm ID 95mm OD bearing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>F687ZZ bearing</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>AMASS XT60 Female connector</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>AMASS XT60E-M connector</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18T 5mm ID HTD5 pulley</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$21</c:f>
+              <c:f>'TennisBot v1'!$D$3:$D$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>\$#,##0.00</c:formatCode>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
@@ -1096,57 +1372,95 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.872</c:v>
+                  <c:v>25.871999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.64</c:v>
+                  <c:v>17.639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1625</c:v>
+                  <c:v>7.1624999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.75</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>245</c:v>
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>147</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>90</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76.8</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.75</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.7</c:v>
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.3999999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000026-E2A6-0745-9769-F140C54E61B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
         <c:holeSize val="50"/>
       </c:doughnutChart>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1167,36 +1481,43 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="1a1a1a"/>
+                <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
               <a:latin typeface="Arial"/>
               <a:ea typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1208,16 +1529,22 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>931320</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>197640</xdr:rowOff>
+      <xdr:rowOff>172240</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7529040" y="190440"/>
-        <a:ext cx="6352920" cy="3933360"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1230,4292 +1557,4853 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E1004"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1020"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.57"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <f>90*0.15</f>
+        <v>13.5</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D27" si="0">B3*C3</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <f>40*0.15</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="n">
-        <f aca="false">90*0.15</f>
-        <v>13.5</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
+      <c r="C5" s="5">
+        <f>105*0.15</f>
+        <v>15.75</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <f>86.24*0.15</f>
+        <v>12.935999999999998</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>25.871999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <f>170*0.15</f>
+        <v>25.5</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <f>460*0.15</f>
+        <v>69</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <f>66*0.15</f>
+        <v>9.9</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <f>0.15*58.8</f>
+        <v>8.8199999999999985</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>17.639999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <f>0.15*47.75</f>
+        <v>7.1624999999999996</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>7.1624999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>55</v>
+      </c>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <f>20*0.15</f>
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <f>50*0.15</f>
+        <v>7.5</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <f>3*0.15</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11">
+        <f>3*0.15</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <f>3*0.15</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <f>3*0.15</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="n">
+      <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="n">
-        <f aca="false">40*0.15</f>
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="n">
+      <c r="C19" s="5">
+        <f>3*0.15</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <f>3*0.15</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <f>17.6*0.15</f>
+        <v>2.64</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <f>3*0.15</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <f>30*0.15</f>
+        <v>4.5</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5">
+        <f>2.2*0.15</f>
+        <v>0.33</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5">
+        <f>1.9*0.15</f>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5">
+        <f>2.2*0.14</f>
+        <v>0.30800000000000005</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2320000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">105*0.15</f>
-        <v>15.75</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <f aca="false">86.24*0.15</f>
-        <v>12.936</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <f aca="false">B6*C6</f>
-        <v>25.872</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <f aca="false">170*0.15</f>
-        <v>25.5</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <f aca="false">B7*C7</f>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <f aca="false">300*0.15</f>
-        <v>45</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <f aca="false">B8*C8</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <f aca="false">66*0.15</f>
-        <v>9.9</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <f aca="false">B9*C9</f>
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <f aca="false">0.15*58.8</f>
-        <v>8.82</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <f aca="false">B10*C10</f>
-        <v>17.64</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <f aca="false">0.15*47.75</f>
-        <v>7.1625</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
-        <v>7.1625</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="n">
-        <f aca="false">SUM(D3:D11)</f>
-        <v>195.5745</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <f aca="false">85*0.15</f>
-        <v>12.75</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>245</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6" t="n">
-        <f aca="false">SUM(D13:D15)</f>
-        <v>312.75</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <f aca="false">490*0.15</f>
-        <v>73.5</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <f aca="false">B17*C17</f>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <f aca="false">150*0.15</f>
-        <v>22.5</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <f aca="false">B18*C18</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <f aca="false">128*0.15</f>
-        <v>19.2</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <f aca="false">B19*C19</f>
-        <v>76.8</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <f aca="false">85*0.15</f>
-        <v>12.75</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <f aca="false">69*0.15</f>
-        <v>10.35</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6" t="n">
-        <f aca="false">SUM(D17:D21)</f>
-        <v>347.25</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <f aca="false">267.16*0.15</f>
-        <v>40.074</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
-        <v>40.074</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="5">
+        <f>18*0.15</f>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <f>SUM(D3:D27)</f>
+        <v>311.95649999999989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C46" s="5"/>
-      <c r="D46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="6" t="n">
-        <f aca="false">SUM(E12:E22)</f>
-        <v>855.5745</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="6">
+        <f>SUM(E28:E28)</f>
+        <v>311.95649999999989</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="3:5" ht="14" x14ac:dyDescent="0.15">
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
     </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
     </row>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
     </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
     </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
     </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
     </row>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
     </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
     </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
     </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
     </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
     </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
     </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
     </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
     </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
     </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
     </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
     </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
     </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
     </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
     </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
     </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
     </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
     </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
     </row>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
     </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
     </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
     </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
     </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
     </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
     </row>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
     </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
     </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
     </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
     </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
     </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
     </row>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
     </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
     </row>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
     </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
     </row>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
     </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
     </row>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
     </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
     </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
     </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
     </row>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
     </row>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
     </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
     </row>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
     </row>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
     </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
     </row>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
     </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
     </row>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
     </row>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
     </row>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
     </row>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
     </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
     </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
     </row>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
     </row>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
     </row>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
     </row>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
     </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
     </row>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
     </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
     </row>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
     </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
     </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
     </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
     </row>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
     </row>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
     </row>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
     </row>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
     </row>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
     </row>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
     </row>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
     </row>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
     </row>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
     </row>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
     </row>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
     </row>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
     </row>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
     </row>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
     </row>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
     </row>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
     </row>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
     </row>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
     </row>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
     </row>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
     </row>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
     </row>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
     </row>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
     </row>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
     </row>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
     </row>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
     </row>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
     </row>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
     </row>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
     </row>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
     </row>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
     </row>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
     </row>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
     </row>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
     </row>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
     </row>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
     </row>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
     </row>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
     </row>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
     </row>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
     </row>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
     </row>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
     </row>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
     </row>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
     </row>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
     </row>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
     </row>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
     </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
     </row>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
     </row>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
     </row>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
     </row>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
     </row>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
     </row>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
     </row>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
     </row>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
     </row>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
     </row>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
     </row>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
     </row>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
     </row>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
     </row>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
     </row>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
     </row>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
     </row>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
     </row>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
     </row>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
     </row>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
     </row>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
     </row>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
     </row>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
     </row>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
     </row>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
     </row>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
     </row>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
     </row>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
     </row>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
     </row>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
     </row>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
     </row>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
     </row>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
     </row>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
     </row>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
     </row>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
     </row>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
     </row>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
     </row>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
     </row>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
     </row>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
     </row>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
     </row>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
     </row>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
     </row>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
     </row>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
     </row>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
     </row>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
     </row>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
     </row>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
     </row>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
     </row>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
     </row>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
     </row>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
     </row>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
     </row>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
     </row>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
     </row>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
     </row>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
     </row>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
     </row>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
     </row>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
     </row>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
     </row>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
     </row>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
     </row>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
     </row>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
     </row>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
     </row>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
     </row>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
     </row>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
     </row>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
     </row>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
     </row>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
     </row>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
     </row>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
     </row>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
     </row>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
     </row>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
     </row>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
     </row>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
     </row>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
     </row>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
     </row>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
     </row>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
     </row>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
     </row>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
     </row>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
     </row>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
     </row>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
     </row>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
     </row>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
     </row>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
     </row>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
     </row>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
     </row>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
     </row>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
     </row>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C454" s="5"/>
       <c r="D454" s="5"/>
     </row>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C455" s="5"/>
       <c r="D455" s="5"/>
     </row>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C456" s="5"/>
       <c r="D456" s="5"/>
     </row>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
     </row>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
     </row>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
     </row>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
     </row>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
     </row>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
     </row>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
     </row>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
     </row>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
     </row>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
     </row>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
     </row>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
     </row>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
     </row>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
     </row>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
     </row>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
     </row>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
     </row>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
     </row>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
     </row>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
     </row>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
     </row>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C478" s="5"/>
       <c r="D478" s="5"/>
     </row>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C479" s="5"/>
       <c r="D479" s="5"/>
     </row>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
     </row>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
     </row>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
     </row>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C483" s="5"/>
       <c r="D483" s="5"/>
     </row>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C484" s="5"/>
       <c r="D484" s="5"/>
     </row>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C485" s="5"/>
       <c r="D485" s="5"/>
     </row>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C486" s="5"/>
       <c r="D486" s="5"/>
     </row>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
     </row>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
     </row>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
     </row>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C490" s="5"/>
       <c r="D490" s="5"/>
     </row>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C491" s="5"/>
       <c r="D491" s="5"/>
     </row>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C492" s="5"/>
       <c r="D492" s="5"/>
     </row>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C493" s="5"/>
       <c r="D493" s="5"/>
     </row>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C494" s="5"/>
       <c r="D494" s="5"/>
     </row>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C495" s="5"/>
       <c r="D495" s="5"/>
     </row>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C496" s="5"/>
       <c r="D496" s="5"/>
     </row>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C497" s="5"/>
       <c r="D497" s="5"/>
     </row>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C498" s="5"/>
       <c r="D498" s="5"/>
     </row>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
     </row>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C500" s="5"/>
       <c r="D500" s="5"/>
     </row>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C501" s="5"/>
       <c r="D501" s="5"/>
     </row>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C502" s="5"/>
       <c r="D502" s="5"/>
     </row>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C503" s="5"/>
       <c r="D503" s="5"/>
     </row>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C504" s="5"/>
       <c r="D504" s="5"/>
     </row>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
     </row>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C506" s="5"/>
       <c r="D506" s="5"/>
     </row>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C507" s="5"/>
       <c r="D507" s="5"/>
     </row>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C508" s="5"/>
       <c r="D508" s="5"/>
     </row>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
     </row>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C510" s="5"/>
       <c r="D510" s="5"/>
     </row>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C511" s="5"/>
       <c r="D511" s="5"/>
     </row>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C512" s="5"/>
       <c r="D512" s="5"/>
     </row>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C513" s="5"/>
       <c r="D513" s="5"/>
     </row>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C514" s="5"/>
       <c r="D514" s="5"/>
     </row>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C515" s="5"/>
       <c r="D515" s="5"/>
     </row>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C516" s="5"/>
       <c r="D516" s="5"/>
     </row>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C517" s="5"/>
       <c r="D517" s="5"/>
     </row>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C518" s="5"/>
       <c r="D518" s="5"/>
     </row>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
     </row>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C520" s="5"/>
       <c r="D520" s="5"/>
     </row>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C521" s="5"/>
       <c r="D521" s="5"/>
     </row>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C522" s="5"/>
       <c r="D522" s="5"/>
     </row>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C523" s="5"/>
       <c r="D523" s="5"/>
     </row>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C524" s="5"/>
       <c r="D524" s="5"/>
     </row>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C525" s="5"/>
       <c r="D525" s="5"/>
     </row>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C526" s="5"/>
       <c r="D526" s="5"/>
     </row>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C527" s="5"/>
       <c r="D527" s="5"/>
     </row>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C528" s="5"/>
       <c r="D528" s="5"/>
     </row>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C529" s="5"/>
       <c r="D529" s="5"/>
     </row>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C530" s="5"/>
       <c r="D530" s="5"/>
     </row>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C531" s="5"/>
       <c r="D531" s="5"/>
     </row>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
     </row>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C533" s="5"/>
       <c r="D533" s="5"/>
     </row>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C534" s="5"/>
       <c r="D534" s="5"/>
     </row>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C535" s="5"/>
       <c r="D535" s="5"/>
     </row>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C536" s="5"/>
       <c r="D536" s="5"/>
     </row>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
     </row>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C538" s="5"/>
       <c r="D538" s="5"/>
     </row>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C539" s="5"/>
       <c r="D539" s="5"/>
     </row>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C540" s="5"/>
       <c r="D540" s="5"/>
     </row>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C541" s="5"/>
       <c r="D541" s="5"/>
     </row>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C542" s="5"/>
       <c r="D542" s="5"/>
     </row>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C543" s="5"/>
       <c r="D543" s="5"/>
     </row>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C544" s="5"/>
       <c r="D544" s="5"/>
     </row>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C545" s="5"/>
       <c r="D545" s="5"/>
     </row>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
     </row>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
     </row>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C548" s="5"/>
       <c r="D548" s="5"/>
     </row>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C549" s="5"/>
       <c r="D549" s="5"/>
     </row>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C550" s="5"/>
       <c r="D550" s="5"/>
     </row>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C551" s="5"/>
       <c r="D551" s="5"/>
     </row>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C552" s="5"/>
       <c r="D552" s="5"/>
     </row>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C553" s="5"/>
       <c r="D553" s="5"/>
     </row>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C554" s="5"/>
       <c r="D554" s="5"/>
     </row>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C555" s="5"/>
       <c r="D555" s="5"/>
     </row>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C556" s="5"/>
       <c r="D556" s="5"/>
     </row>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C557" s="5"/>
       <c r="D557" s="5"/>
     </row>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C558" s="5"/>
       <c r="D558" s="5"/>
     </row>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C559" s="5"/>
       <c r="D559" s="5"/>
     </row>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C560" s="5"/>
       <c r="D560" s="5"/>
     </row>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C561" s="5"/>
       <c r="D561" s="5"/>
     </row>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C562" s="5"/>
       <c r="D562" s="5"/>
     </row>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C563" s="5"/>
       <c r="D563" s="5"/>
     </row>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C564" s="5"/>
       <c r="D564" s="5"/>
     </row>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C565" s="5"/>
       <c r="D565" s="5"/>
     </row>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C566" s="5"/>
       <c r="D566" s="5"/>
     </row>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C567" s="5"/>
       <c r="D567" s="5"/>
     </row>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C568" s="5"/>
       <c r="D568" s="5"/>
     </row>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C569" s="5"/>
       <c r="D569" s="5"/>
     </row>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C570" s="5"/>
       <c r="D570" s="5"/>
     </row>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C571" s="5"/>
       <c r="D571" s="5"/>
     </row>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C572" s="5"/>
       <c r="D572" s="5"/>
     </row>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C573" s="5"/>
       <c r="D573" s="5"/>
     </row>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C574" s="5"/>
       <c r="D574" s="5"/>
     </row>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C575" s="5"/>
       <c r="D575" s="5"/>
     </row>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C576" s="5"/>
       <c r="D576" s="5"/>
     </row>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C577" s="5"/>
       <c r="D577" s="5"/>
     </row>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C578" s="5"/>
       <c r="D578" s="5"/>
     </row>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C579" s="5"/>
       <c r="D579" s="5"/>
     </row>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C580" s="5"/>
       <c r="D580" s="5"/>
     </row>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C581" s="5"/>
       <c r="D581" s="5"/>
     </row>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C582" s="5"/>
       <c r="D582" s="5"/>
     </row>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C583" s="5"/>
       <c r="D583" s="5"/>
     </row>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C584" s="5"/>
       <c r="D584" s="5"/>
     </row>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C585" s="5"/>
       <c r="D585" s="5"/>
     </row>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C586" s="5"/>
       <c r="D586" s="5"/>
     </row>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C587" s="5"/>
       <c r="D587" s="5"/>
     </row>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C588" s="5"/>
       <c r="D588" s="5"/>
     </row>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C589" s="5"/>
       <c r="D589" s="5"/>
     </row>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C590" s="5"/>
       <c r="D590" s="5"/>
     </row>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C591" s="5"/>
       <c r="D591" s="5"/>
     </row>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C592" s="5"/>
       <c r="D592" s="5"/>
     </row>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C593" s="5"/>
       <c r="D593" s="5"/>
     </row>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C594" s="5"/>
       <c r="D594" s="5"/>
     </row>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C595" s="5"/>
       <c r="D595" s="5"/>
     </row>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C596" s="5"/>
       <c r="D596" s="5"/>
     </row>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C597" s="5"/>
       <c r="D597" s="5"/>
     </row>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C598" s="5"/>
       <c r="D598" s="5"/>
     </row>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C599" s="5"/>
       <c r="D599" s="5"/>
     </row>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C600" s="5"/>
       <c r="D600" s="5"/>
     </row>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C601" s="5"/>
       <c r="D601" s="5"/>
     </row>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C602" s="5"/>
       <c r="D602" s="5"/>
     </row>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C603" s="5"/>
       <c r="D603" s="5"/>
     </row>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C604" s="5"/>
       <c r="D604" s="5"/>
     </row>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C605" s="5"/>
       <c r="D605" s="5"/>
     </row>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C606" s="5"/>
       <c r="D606" s="5"/>
     </row>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C607" s="5"/>
       <c r="D607" s="5"/>
     </row>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C608" s="5"/>
       <c r="D608" s="5"/>
     </row>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C609" s="5"/>
       <c r="D609" s="5"/>
     </row>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C610" s="5"/>
       <c r="D610" s="5"/>
     </row>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C611" s="5"/>
       <c r="D611" s="5"/>
     </row>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C612" s="5"/>
       <c r="D612" s="5"/>
     </row>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C613" s="5"/>
       <c r="D613" s="5"/>
     </row>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C614" s="5"/>
       <c r="D614" s="5"/>
     </row>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C615" s="5"/>
       <c r="D615" s="5"/>
     </row>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C616" s="5"/>
       <c r="D616" s="5"/>
     </row>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C617" s="5"/>
       <c r="D617" s="5"/>
     </row>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C618" s="5"/>
       <c r="D618" s="5"/>
     </row>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C619" s="5"/>
       <c r="D619" s="5"/>
     </row>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C620" s="5"/>
       <c r="D620" s="5"/>
     </row>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C621" s="5"/>
       <c r="D621" s="5"/>
     </row>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C622" s="5"/>
       <c r="D622" s="5"/>
     </row>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C623" s="5"/>
       <c r="D623" s="5"/>
     </row>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
     </row>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C625" s="5"/>
       <c r="D625" s="5"/>
     </row>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C626" s="5"/>
       <c r="D626" s="5"/>
     </row>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C627" s="5"/>
       <c r="D627" s="5"/>
     </row>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C628" s="5"/>
       <c r="D628" s="5"/>
     </row>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C629" s="5"/>
       <c r="D629" s="5"/>
     </row>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C630" s="5"/>
       <c r="D630" s="5"/>
     </row>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C631" s="5"/>
       <c r="D631" s="5"/>
     </row>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C632" s="5"/>
       <c r="D632" s="5"/>
     </row>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C633" s="5"/>
       <c r="D633" s="5"/>
     </row>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C634" s="5"/>
       <c r="D634" s="5"/>
     </row>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C635" s="5"/>
       <c r="D635" s="5"/>
     </row>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C636" s="5"/>
       <c r="D636" s="5"/>
     </row>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C637" s="5"/>
       <c r="D637" s="5"/>
     </row>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C638" s="5"/>
       <c r="D638" s="5"/>
     </row>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C639" s="5"/>
       <c r="D639" s="5"/>
     </row>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C640" s="5"/>
       <c r="D640" s="5"/>
     </row>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C641" s="5"/>
       <c r="D641" s="5"/>
     </row>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C642" s="5"/>
       <c r="D642" s="5"/>
     </row>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C643" s="5"/>
       <c r="D643" s="5"/>
     </row>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C644" s="5"/>
       <c r="D644" s="5"/>
     </row>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C645" s="5"/>
       <c r="D645" s="5"/>
     </row>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C646" s="5"/>
       <c r="D646" s="5"/>
     </row>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C647" s="5"/>
       <c r="D647" s="5"/>
     </row>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C648" s="5"/>
       <c r="D648" s="5"/>
     </row>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C649" s="5"/>
       <c r="D649" s="5"/>
     </row>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C650" s="5"/>
       <c r="D650" s="5"/>
     </row>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C651" s="5"/>
       <c r="D651" s="5"/>
     </row>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C652" s="5"/>
       <c r="D652" s="5"/>
     </row>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C653" s="5"/>
       <c r="D653" s="5"/>
     </row>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C654" s="5"/>
       <c r="D654" s="5"/>
     </row>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C655" s="5"/>
       <c r="D655" s="5"/>
     </row>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C656" s="5"/>
       <c r="D656" s="5"/>
     </row>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C657" s="5"/>
       <c r="D657" s="5"/>
     </row>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C658" s="5"/>
       <c r="D658" s="5"/>
     </row>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C659" s="5"/>
       <c r="D659" s="5"/>
     </row>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C660" s="5"/>
       <c r="D660" s="5"/>
     </row>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C661" s="5"/>
       <c r="D661" s="5"/>
     </row>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C662" s="5"/>
       <c r="D662" s="5"/>
     </row>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C663" s="5"/>
       <c r="D663" s="5"/>
     </row>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C664" s="5"/>
       <c r="D664" s="5"/>
     </row>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C665" s="5"/>
       <c r="D665" s="5"/>
     </row>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C666" s="5"/>
       <c r="D666" s="5"/>
     </row>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C667" s="5"/>
       <c r="D667" s="5"/>
     </row>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C668" s="5"/>
       <c r="D668" s="5"/>
     </row>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C669" s="5"/>
       <c r="D669" s="5"/>
     </row>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C670" s="5"/>
       <c r="D670" s="5"/>
     </row>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C671" s="5"/>
       <c r="D671" s="5"/>
     </row>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C672" s="5"/>
       <c r="D672" s="5"/>
     </row>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C673" s="5"/>
       <c r="D673" s="5"/>
     </row>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C674" s="5"/>
       <c r="D674" s="5"/>
     </row>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C675" s="5"/>
       <c r="D675" s="5"/>
     </row>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C676" s="5"/>
       <c r="D676" s="5"/>
     </row>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C677" s="5"/>
       <c r="D677" s="5"/>
     </row>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C678" s="5"/>
       <c r="D678" s="5"/>
     </row>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C679" s="5"/>
       <c r="D679" s="5"/>
     </row>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C680" s="5"/>
       <c r="D680" s="5"/>
     </row>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C681" s="5"/>
       <c r="D681" s="5"/>
     </row>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C682" s="5"/>
       <c r="D682" s="5"/>
     </row>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C683" s="5"/>
       <c r="D683" s="5"/>
     </row>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C684" s="5"/>
       <c r="D684" s="5"/>
     </row>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C685" s="5"/>
       <c r="D685" s="5"/>
     </row>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C686" s="5"/>
       <c r="D686" s="5"/>
     </row>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C687" s="5"/>
       <c r="D687" s="5"/>
     </row>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C688" s="5"/>
       <c r="D688" s="5"/>
     </row>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C689" s="5"/>
       <c r="D689" s="5"/>
     </row>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C690" s="5"/>
       <c r="D690" s="5"/>
     </row>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C691" s="5"/>
       <c r="D691" s="5"/>
     </row>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C692" s="5"/>
       <c r="D692" s="5"/>
     </row>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C693" s="5"/>
       <c r="D693" s="5"/>
     </row>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C694" s="5"/>
       <c r="D694" s="5"/>
     </row>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C695" s="5"/>
       <c r="D695" s="5"/>
     </row>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C696" s="5"/>
       <c r="D696" s="5"/>
     </row>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C697" s="5"/>
       <c r="D697" s="5"/>
     </row>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C698" s="5"/>
       <c r="D698" s="5"/>
     </row>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C699" s="5"/>
       <c r="D699" s="5"/>
     </row>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C700" s="5"/>
       <c r="D700" s="5"/>
     </row>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C701" s="5"/>
       <c r="D701" s="5"/>
     </row>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C702" s="5"/>
       <c r="D702" s="5"/>
     </row>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C703" s="5"/>
       <c r="D703" s="5"/>
     </row>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C704" s="5"/>
       <c r="D704" s="5"/>
     </row>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C705" s="5"/>
       <c r="D705" s="5"/>
     </row>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C706" s="5"/>
       <c r="D706" s="5"/>
     </row>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C707" s="5"/>
       <c r="D707" s="5"/>
     </row>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C708" s="5"/>
       <c r="D708" s="5"/>
     </row>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C709" s="5"/>
       <c r="D709" s="5"/>
     </row>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C710" s="5"/>
       <c r="D710" s="5"/>
     </row>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C711" s="5"/>
       <c r="D711" s="5"/>
     </row>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C712" s="5"/>
       <c r="D712" s="5"/>
     </row>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C713" s="5"/>
       <c r="D713" s="5"/>
     </row>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C714" s="5"/>
       <c r="D714" s="5"/>
     </row>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C715" s="5"/>
       <c r="D715" s="5"/>
     </row>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C716" s="5"/>
       <c r="D716" s="5"/>
     </row>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C717" s="5"/>
       <c r="D717" s="5"/>
     </row>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C718" s="5"/>
       <c r="D718" s="5"/>
     </row>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C719" s="5"/>
       <c r="D719" s="5"/>
     </row>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C720" s="5"/>
       <c r="D720" s="5"/>
     </row>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C721" s="5"/>
       <c r="D721" s="5"/>
     </row>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C722" s="5"/>
       <c r="D722" s="5"/>
     </row>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C723" s="5"/>
       <c r="D723" s="5"/>
     </row>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C724" s="5"/>
       <c r="D724" s="5"/>
     </row>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C725" s="5"/>
       <c r="D725" s="5"/>
     </row>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C726" s="5"/>
       <c r="D726" s="5"/>
     </row>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C727" s="5"/>
       <c r="D727" s="5"/>
     </row>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C728" s="5"/>
       <c r="D728" s="5"/>
     </row>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C729" s="5"/>
       <c r="D729" s="5"/>
     </row>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C730" s="5"/>
       <c r="D730" s="5"/>
     </row>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C731" s="5"/>
       <c r="D731" s="5"/>
     </row>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C732" s="5"/>
       <c r="D732" s="5"/>
     </row>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C733" s="5"/>
       <c r="D733" s="5"/>
     </row>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C734" s="5"/>
       <c r="D734" s="5"/>
     </row>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C735" s="5"/>
       <c r="D735" s="5"/>
     </row>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C736" s="5"/>
       <c r="D736" s="5"/>
     </row>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C737" s="5"/>
       <c r="D737" s="5"/>
     </row>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C738" s="5"/>
       <c r="D738" s="5"/>
     </row>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C739" s="5"/>
       <c r="D739" s="5"/>
     </row>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C740" s="5"/>
       <c r="D740" s="5"/>
     </row>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C741" s="5"/>
       <c r="D741" s="5"/>
     </row>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C742" s="5"/>
       <c r="D742" s="5"/>
     </row>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C743" s="5"/>
       <c r="D743" s="5"/>
     </row>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C744" s="5"/>
       <c r="D744" s="5"/>
     </row>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C745" s="5"/>
       <c r="D745" s="5"/>
     </row>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C746" s="5"/>
       <c r="D746" s="5"/>
     </row>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C747" s="5"/>
       <c r="D747" s="5"/>
     </row>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C748" s="5"/>
       <c r="D748" s="5"/>
     </row>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C749" s="5"/>
       <c r="D749" s="5"/>
     </row>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C750" s="5"/>
       <c r="D750" s="5"/>
     </row>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C751" s="5"/>
       <c r="D751" s="5"/>
     </row>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C752" s="5"/>
       <c r="D752" s="5"/>
     </row>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C753" s="5"/>
       <c r="D753" s="5"/>
     </row>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C754" s="5"/>
       <c r="D754" s="5"/>
     </row>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C755" s="5"/>
       <c r="D755" s="5"/>
     </row>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C756" s="5"/>
       <c r="D756" s="5"/>
     </row>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C757" s="5"/>
       <c r="D757" s="5"/>
     </row>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C758" s="5"/>
       <c r="D758" s="5"/>
     </row>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C759" s="5"/>
       <c r="D759" s="5"/>
     </row>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C760" s="5"/>
       <c r="D760" s="5"/>
     </row>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C761" s="5"/>
       <c r="D761" s="5"/>
     </row>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C762" s="5"/>
       <c r="D762" s="5"/>
     </row>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C763" s="5"/>
       <c r="D763" s="5"/>
     </row>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C764" s="5"/>
       <c r="D764" s="5"/>
     </row>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C765" s="5"/>
       <c r="D765" s="5"/>
     </row>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C766" s="5"/>
       <c r="D766" s="5"/>
     </row>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C767" s="5"/>
       <c r="D767" s="5"/>
     </row>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C768" s="5"/>
       <c r="D768" s="5"/>
     </row>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C769" s="5"/>
       <c r="D769" s="5"/>
     </row>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C770" s="5"/>
       <c r="D770" s="5"/>
     </row>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C771" s="5"/>
       <c r="D771" s="5"/>
     </row>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C772" s="5"/>
       <c r="D772" s="5"/>
     </row>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C773" s="5"/>
       <c r="D773" s="5"/>
     </row>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C774" s="5"/>
       <c r="D774" s="5"/>
     </row>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C775" s="5"/>
       <c r="D775" s="5"/>
     </row>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C776" s="5"/>
       <c r="D776" s="5"/>
     </row>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C777" s="5"/>
       <c r="D777" s="5"/>
     </row>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C778" s="5"/>
       <c r="D778" s="5"/>
     </row>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C779" s="5"/>
       <c r="D779" s="5"/>
     </row>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C780" s="5"/>
       <c r="D780" s="5"/>
     </row>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C781" s="5"/>
       <c r="D781" s="5"/>
     </row>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C782" s="5"/>
       <c r="D782" s="5"/>
     </row>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C783" s="5"/>
       <c r="D783" s="5"/>
     </row>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C784" s="5"/>
       <c r="D784" s="5"/>
     </row>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C785" s="5"/>
       <c r="D785" s="5"/>
     </row>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C786" s="5"/>
       <c r="D786" s="5"/>
     </row>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C787" s="5"/>
       <c r="D787" s="5"/>
     </row>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C788" s="5"/>
       <c r="D788" s="5"/>
     </row>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C789" s="5"/>
       <c r="D789" s="5"/>
     </row>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C790" s="5"/>
       <c r="D790" s="5"/>
     </row>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C791" s="5"/>
       <c r="D791" s="5"/>
     </row>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C792" s="5"/>
       <c r="D792" s="5"/>
     </row>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C793" s="5"/>
       <c r="D793" s="5"/>
     </row>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C794" s="5"/>
       <c r="D794" s="5"/>
     </row>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C795" s="5"/>
       <c r="D795" s="5"/>
     </row>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C796" s="5"/>
       <c r="D796" s="5"/>
     </row>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C797" s="5"/>
       <c r="D797" s="5"/>
     </row>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C798" s="5"/>
       <c r="D798" s="5"/>
     </row>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C799" s="5"/>
       <c r="D799" s="5"/>
     </row>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C800" s="5"/>
       <c r="D800" s="5"/>
     </row>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C801" s="5"/>
       <c r="D801" s="5"/>
     </row>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C802" s="5"/>
       <c r="D802" s="5"/>
     </row>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C803" s="5"/>
       <c r="D803" s="5"/>
     </row>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C804" s="5"/>
       <c r="D804" s="5"/>
     </row>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C805" s="5"/>
       <c r="D805" s="5"/>
     </row>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C806" s="5"/>
       <c r="D806" s="5"/>
     </row>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C807" s="5"/>
       <c r="D807" s="5"/>
     </row>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C808" s="5"/>
       <c r="D808" s="5"/>
     </row>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C809" s="5"/>
       <c r="D809" s="5"/>
     </row>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C810" s="5"/>
       <c r="D810" s="5"/>
     </row>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C811" s="5"/>
       <c r="D811" s="5"/>
     </row>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C812" s="5"/>
       <c r="D812" s="5"/>
     </row>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C813" s="5"/>
       <c r="D813" s="5"/>
     </row>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C814" s="5"/>
       <c r="D814" s="5"/>
     </row>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C815" s="5"/>
       <c r="D815" s="5"/>
     </row>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C816" s="5"/>
       <c r="D816" s="5"/>
     </row>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C817" s="5"/>
       <c r="D817" s="5"/>
     </row>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C818" s="5"/>
       <c r="D818" s="5"/>
     </row>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C819" s="5"/>
       <c r="D819" s="5"/>
     </row>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C820" s="5"/>
       <c r="D820" s="5"/>
     </row>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C821" s="5"/>
       <c r="D821" s="5"/>
     </row>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C822" s="5"/>
       <c r="D822" s="5"/>
     </row>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C823" s="5"/>
       <c r="D823" s="5"/>
     </row>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C824" s="5"/>
       <c r="D824" s="5"/>
     </row>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C825" s="5"/>
       <c r="D825" s="5"/>
     </row>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C826" s="5"/>
       <c r="D826" s="5"/>
     </row>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C827" s="5"/>
       <c r="D827" s="5"/>
     </row>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C828" s="5"/>
       <c r="D828" s="5"/>
     </row>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C829" s="5"/>
       <c r="D829" s="5"/>
     </row>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C830" s="5"/>
       <c r="D830" s="5"/>
     </row>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C831" s="5"/>
       <c r="D831" s="5"/>
     </row>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C832" s="5"/>
       <c r="D832" s="5"/>
     </row>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C833" s="5"/>
       <c r="D833" s="5"/>
     </row>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C834" s="5"/>
       <c r="D834" s="5"/>
     </row>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C835" s="5"/>
       <c r="D835" s="5"/>
     </row>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C836" s="5"/>
       <c r="D836" s="5"/>
     </row>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C837" s="5"/>
       <c r="D837" s="5"/>
     </row>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C838" s="5"/>
       <c r="D838" s="5"/>
     </row>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C839" s="5"/>
       <c r="D839" s="5"/>
     </row>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C840" s="5"/>
       <c r="D840" s="5"/>
     </row>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C841" s="5"/>
       <c r="D841" s="5"/>
     </row>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C842" s="5"/>
       <c r="D842" s="5"/>
     </row>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C843" s="5"/>
       <c r="D843" s="5"/>
     </row>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C844" s="5"/>
       <c r="D844" s="5"/>
     </row>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C845" s="5"/>
       <c r="D845" s="5"/>
     </row>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C846" s="5"/>
       <c r="D846" s="5"/>
     </row>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C847" s="5"/>
       <c r="D847" s="5"/>
     </row>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C848" s="5"/>
       <c r="D848" s="5"/>
     </row>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C849" s="5"/>
       <c r="D849" s="5"/>
     </row>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C850" s="5"/>
       <c r="D850" s="5"/>
     </row>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C851" s="5"/>
       <c r="D851" s="5"/>
     </row>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C852" s="5"/>
       <c r="D852" s="5"/>
     </row>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C853" s="5"/>
       <c r="D853" s="5"/>
     </row>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C854" s="5"/>
       <c r="D854" s="5"/>
     </row>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C855" s="5"/>
       <c r="D855" s="5"/>
     </row>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C856" s="5"/>
       <c r="D856" s="5"/>
     </row>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C857" s="5"/>
       <c r="D857" s="5"/>
     </row>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C858" s="5"/>
       <c r="D858" s="5"/>
     </row>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C859" s="5"/>
       <c r="D859" s="5"/>
     </row>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C860" s="5"/>
       <c r="D860" s="5"/>
     </row>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C861" s="5"/>
       <c r="D861" s="5"/>
     </row>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C862" s="5"/>
       <c r="D862" s="5"/>
     </row>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C863" s="5"/>
       <c r="D863" s="5"/>
     </row>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C864" s="5"/>
       <c r="D864" s="5"/>
     </row>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C865" s="5"/>
       <c r="D865" s="5"/>
     </row>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C866" s="5"/>
       <c r="D866" s="5"/>
     </row>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C867" s="5"/>
       <c r="D867" s="5"/>
     </row>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C868" s="5"/>
       <c r="D868" s="5"/>
     </row>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C869" s="5"/>
       <c r="D869" s="5"/>
     </row>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C870" s="5"/>
       <c r="D870" s="5"/>
     </row>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C871" s="5"/>
       <c r="D871" s="5"/>
     </row>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C872" s="5"/>
       <c r="D872" s="5"/>
     </row>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C873" s="5"/>
       <c r="D873" s="5"/>
     </row>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C874" s="5"/>
       <c r="D874" s="5"/>
     </row>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C875" s="5"/>
       <c r="D875" s="5"/>
     </row>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C876" s="5"/>
       <c r="D876" s="5"/>
     </row>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C877" s="5"/>
       <c r="D877" s="5"/>
     </row>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C878" s="5"/>
       <c r="D878" s="5"/>
     </row>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C879" s="5"/>
       <c r="D879" s="5"/>
     </row>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C880" s="5"/>
       <c r="D880" s="5"/>
     </row>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C881" s="5"/>
       <c r="D881" s="5"/>
     </row>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C882" s="5"/>
       <c r="D882" s="5"/>
     </row>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C883" s="5"/>
       <c r="D883" s="5"/>
     </row>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C884" s="5"/>
       <c r="D884" s="5"/>
     </row>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C885" s="5"/>
       <c r="D885" s="5"/>
     </row>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C886" s="5"/>
       <c r="D886" s="5"/>
     </row>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C887" s="5"/>
       <c r="D887" s="5"/>
     </row>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C888" s="5"/>
       <c r="D888" s="5"/>
     </row>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C889" s="5"/>
       <c r="D889" s="5"/>
     </row>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C890" s="5"/>
       <c r="D890" s="5"/>
     </row>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C891" s="5"/>
       <c r="D891" s="5"/>
     </row>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C892" s="5"/>
       <c r="D892" s="5"/>
     </row>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C893" s="5"/>
       <c r="D893" s="5"/>
     </row>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C894" s="5"/>
       <c r="D894" s="5"/>
     </row>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C895" s="5"/>
       <c r="D895" s="5"/>
     </row>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C896" s="5"/>
       <c r="D896" s="5"/>
     </row>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C897" s="5"/>
       <c r="D897" s="5"/>
     </row>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C898" s="5"/>
       <c r="D898" s="5"/>
     </row>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C899" s="5"/>
       <c r="D899" s="5"/>
     </row>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C900" s="5"/>
       <c r="D900" s="5"/>
     </row>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C901" s="5"/>
       <c r="D901" s="5"/>
     </row>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C902" s="5"/>
       <c r="D902" s="5"/>
     </row>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C903" s="5"/>
       <c r="D903" s="5"/>
     </row>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C904" s="5"/>
       <c r="D904" s="5"/>
     </row>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C905" s="5"/>
       <c r="D905" s="5"/>
     </row>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C906" s="5"/>
       <c r="D906" s="5"/>
     </row>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C907" s="5"/>
       <c r="D907" s="5"/>
     </row>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C908" s="5"/>
       <c r="D908" s="5"/>
     </row>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C909" s="5"/>
       <c r="D909" s="5"/>
     </row>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C910" s="5"/>
       <c r="D910" s="5"/>
     </row>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C911" s="5"/>
       <c r="D911" s="5"/>
     </row>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C912" s="5"/>
       <c r="D912" s="5"/>
     </row>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C913" s="5"/>
       <c r="D913" s="5"/>
     </row>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C914" s="5"/>
       <c r="D914" s="5"/>
     </row>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C915" s="5"/>
       <c r="D915" s="5"/>
     </row>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C916" s="5"/>
       <c r="D916" s="5"/>
     </row>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C917" s="5"/>
       <c r="D917" s="5"/>
     </row>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C918" s="5"/>
       <c r="D918" s="5"/>
     </row>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C919" s="5"/>
       <c r="D919" s="5"/>
     </row>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C920" s="5"/>
       <c r="D920" s="5"/>
     </row>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C921" s="5"/>
       <c r="D921" s="5"/>
     </row>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C922" s="5"/>
       <c r="D922" s="5"/>
     </row>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C923" s="5"/>
       <c r="D923" s="5"/>
     </row>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C924" s="5"/>
       <c r="D924" s="5"/>
     </row>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C925" s="5"/>
       <c r="D925" s="5"/>
     </row>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C926" s="5"/>
       <c r="D926" s="5"/>
     </row>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C927" s="5"/>
       <c r="D927" s="5"/>
     </row>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C928" s="5"/>
       <c r="D928" s="5"/>
     </row>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C929" s="5"/>
       <c r="D929" s="5"/>
     </row>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C930" s="5"/>
       <c r="D930" s="5"/>
     </row>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C931" s="5"/>
       <c r="D931" s="5"/>
     </row>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C932" s="5"/>
       <c r="D932" s="5"/>
     </row>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C933" s="5"/>
       <c r="D933" s="5"/>
     </row>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C934" s="5"/>
       <c r="D934" s="5"/>
     </row>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C935" s="5"/>
       <c r="D935" s="5"/>
     </row>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C936" s="5"/>
       <c r="D936" s="5"/>
     </row>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C937" s="5"/>
       <c r="D937" s="5"/>
     </row>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C938" s="5"/>
       <c r="D938" s="5"/>
     </row>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C939" s="5"/>
       <c r="D939" s="5"/>
     </row>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C940" s="5"/>
       <c r="D940" s="5"/>
     </row>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C941" s="5"/>
       <c r="D941" s="5"/>
     </row>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C942" s="5"/>
       <c r="D942" s="5"/>
     </row>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C943" s="5"/>
       <c r="D943" s="5"/>
     </row>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C944" s="5"/>
       <c r="D944" s="5"/>
     </row>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C945" s="5"/>
       <c r="D945" s="5"/>
     </row>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C946" s="5"/>
       <c r="D946" s="5"/>
     </row>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C947" s="5"/>
       <c r="D947" s="5"/>
     </row>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C948" s="5"/>
       <c r="D948" s="5"/>
     </row>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C949" s="5"/>
       <c r="D949" s="5"/>
     </row>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C950" s="5"/>
       <c r="D950" s="5"/>
     </row>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C951" s="5"/>
       <c r="D951" s="5"/>
     </row>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C952" s="5"/>
       <c r="D952" s="5"/>
     </row>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C953" s="5"/>
       <c r="D953" s="5"/>
     </row>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C954" s="5"/>
       <c r="D954" s="5"/>
     </row>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C955" s="5"/>
       <c r="D955" s="5"/>
     </row>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C956" s="5"/>
       <c r="D956" s="5"/>
     </row>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C957" s="5"/>
       <c r="D957" s="5"/>
     </row>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C958" s="5"/>
       <c r="D958" s="5"/>
     </row>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C959" s="5"/>
       <c r="D959" s="5"/>
     </row>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C960" s="5"/>
       <c r="D960" s="5"/>
     </row>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C961" s="5"/>
       <c r="D961" s="5"/>
     </row>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C962" s="5"/>
       <c r="D962" s="5"/>
     </row>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C963" s="5"/>
       <c r="D963" s="5"/>
     </row>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C964" s="5"/>
       <c r="D964" s="5"/>
     </row>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C965" s="5"/>
       <c r="D965" s="5"/>
     </row>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C966" s="5"/>
       <c r="D966" s="5"/>
     </row>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C967" s="5"/>
       <c r="D967" s="5"/>
     </row>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C968" s="5"/>
       <c r="D968" s="5"/>
     </row>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C969" s="5"/>
       <c r="D969" s="5"/>
     </row>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C970" s="5"/>
       <c r="D970" s="5"/>
     </row>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C971" s="5"/>
       <c r="D971" s="5"/>
     </row>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C972" s="5"/>
       <c r="D972" s="5"/>
     </row>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C973" s="5"/>
       <c r="D973" s="5"/>
     </row>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C974" s="5"/>
       <c r="D974" s="5"/>
     </row>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C975" s="5"/>
       <c r="D975" s="5"/>
     </row>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C976" s="5"/>
       <c r="D976" s="5"/>
     </row>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C977" s="5"/>
       <c r="D977" s="5"/>
     </row>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C978" s="5"/>
       <c r="D978" s="5"/>
     </row>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C979" s="5"/>
       <c r="D979" s="5"/>
     </row>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C980" s="5"/>
       <c r="D980" s="5"/>
     </row>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C981" s="5"/>
       <c r="D981" s="5"/>
     </row>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C982" s="5"/>
       <c r="D982" s="5"/>
     </row>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C983" s="5"/>
       <c r="D983" s="5"/>
     </row>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C984" s="5"/>
       <c r="D984" s="5"/>
     </row>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C985" s="5"/>
       <c r="D985" s="5"/>
     </row>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C986" s="5"/>
       <c r="D986" s="5"/>
     </row>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C987" s="5"/>
       <c r="D987" s="5"/>
     </row>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C988" s="5"/>
       <c r="D988" s="5"/>
     </row>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C989" s="5"/>
       <c r="D989" s="5"/>
     </row>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C990" s="5"/>
       <c r="D990" s="5"/>
     </row>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C991" s="5"/>
       <c r="D991" s="5"/>
     </row>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C992" s="5"/>
       <c r="D992" s="5"/>
     </row>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C993" s="5"/>
       <c r="D993" s="5"/>
     </row>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C994" s="5"/>
       <c r="D994" s="5"/>
     </row>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C995" s="5"/>
       <c r="D995" s="5"/>
     </row>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C996" s="5"/>
       <c r="D996" s="5"/>
     </row>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="997" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C997" s="5"/>
       <c r="D997" s="5"/>
     </row>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="998" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C998" s="5"/>
       <c r="D998" s="5"/>
     </row>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="999" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C999" s="5"/>
       <c r="D999" s="5"/>
     </row>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1000" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C1000" s="5"/>
       <c r="D1000" s="5"/>
     </row>
-    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1001" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C1001" s="5"/>
       <c r="D1001" s="5"/>
     </row>
-    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1002" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C1002" s="5"/>
       <c r="D1002" s="5"/>
     </row>
-    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1003" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C1003" s="5"/>
       <c r="D1003" s="5"/>
     </row>
-    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1004" spans="3:4" ht="14" x14ac:dyDescent="0.15">
       <c r="C1004" s="5"/>
       <c r="D1004" s="5"/>
     </row>
+    <row r="1005" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1005" s="5"/>
+      <c r="D1005" s="5"/>
+    </row>
+    <row r="1006" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1006" s="5"/>
+      <c r="D1006" s="5"/>
+    </row>
+    <row r="1007" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1007" s="5"/>
+      <c r="D1007" s="5"/>
+    </row>
+    <row r="1008" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1008" s="5"/>
+      <c r="D1008" s="5"/>
+    </row>
+    <row r="1009" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1009" s="5"/>
+      <c r="D1009" s="5"/>
+    </row>
+    <row r="1010" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1010" s="5"/>
+      <c r="D1010" s="5"/>
+    </row>
+    <row r="1011" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1011" s="5"/>
+      <c r="D1011" s="5"/>
+    </row>
+    <row r="1012" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1012" s="5"/>
+      <c r="D1012" s="5"/>
+    </row>
+    <row r="1013" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1013" s="5"/>
+      <c r="D1013" s="5"/>
+    </row>
+    <row r="1014" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1014" s="5"/>
+      <c r="D1014" s="5"/>
+    </row>
+    <row r="1015" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1015" s="5"/>
+      <c r="D1015" s="5"/>
+    </row>
+    <row r="1016" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1016" s="5"/>
+      <c r="D1016" s="5"/>
+    </row>
+    <row r="1017" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1017" s="5"/>
+      <c r="D1017" s="5"/>
+    </row>
+    <row r="1018" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1018" s="5"/>
+      <c r="D1018" s="5"/>
+    </row>
+    <row r="1019" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1019" s="5"/>
+      <c r="D1019" s="5"/>
+    </row>
+    <row r="1020" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1020" s="5"/>
+      <c r="D1020" s="5"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <ignoredErrors>
+    <ignoredError sqref="C21" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2965077F-CC17-E348-8465-43DB4D071D15}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <f>85*0.15</f>
+        <v>12.75</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>245</v>
+      </c>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6">
+        <f>SUM(D3:D4)</f>
+        <v>257.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <f>490*0.15</f>
+        <v>73.5</v>
+      </c>
+      <c r="D6" s="5">
+        <f>B6*C6</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <f>150*0.15</f>
+        <v>22.5</v>
+      </c>
+      <c r="D7" s="5">
+        <f>B7*C7</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <f>128*0.15</f>
+        <v>19.2</v>
+      </c>
+      <c r="D8" s="5">
+        <f>B8*C8</f>
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <f>85*0.15</f>
+        <v>12.75</v>
+      </c>
+      <c r="D9" s="5">
+        <f>B9*C9</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <f>69*0.15</f>
+        <v>10.35</v>
+      </c>
+      <c r="D10" s="5">
+        <f>B10*C10</f>
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6">
+        <f>SUM(D6:D10)</f>
+        <v>347.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>